--- a/combineClean.xlsx
+++ b/combineClean.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\landfireFSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E48A8646-0BDA-4D60-A6F6-28FACA062D9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACB0A49-B774-40DA-A50C-4A94DC675C02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="885" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
-    <sheet name="combineClean" sheetId="1" r:id="rId2"/>
+    <sheet name="historical" sheetId="4" r:id="rId1"/>
+    <sheet name="conversion" sheetId="2" r:id="rId2"/>
+    <sheet name="combineClean" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7871" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7884" uniqueCount="156">
   <si>
     <t>COUNT</t>
   </si>
@@ -985,10 +987,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -14986,7 +14989,261 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E79E2230-3BCC-4834-A835-D0880F2CA1E1}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="2">
+  <location ref="A3:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" measureFilter="1" sortType="descending">
+      <items count="20">
+        <item x="11"/>
+        <item x="5"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="15"/>
+        <item x="2"/>
+        <item x="8"/>
+        <item x="10"/>
+        <item x="17"/>
+        <item x="16"/>
+        <item x="4"/>
+        <item x="9"/>
+        <item x="1"/>
+        <item x="13"/>
+        <item x="12"/>
+        <item x="3"/>
+        <item x="14"/>
+        <item x="0"/>
+        <item x="18"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <items count="77">
+        <item x="20"/>
+        <item x="7"/>
+        <item x="28"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="40"/>
+        <item x="11"/>
+        <item x="21"/>
+        <item x="61"/>
+        <item x="34"/>
+        <item x="22"/>
+        <item x="41"/>
+        <item x="66"/>
+        <item x="35"/>
+        <item x="42"/>
+        <item x="37"/>
+        <item x="56"/>
+        <item x="62"/>
+        <item x="51"/>
+        <item x="55"/>
+        <item x="49"/>
+        <item x="53"/>
+        <item x="52"/>
+        <item x="44"/>
+        <item x="50"/>
+        <item x="59"/>
+        <item x="64"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="31"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="2"/>
+        <item x="36"/>
+        <item x="27"/>
+        <item x="33"/>
+        <item x="54"/>
+        <item x="8"/>
+        <item x="48"/>
+        <item x="16"/>
+        <item x="19"/>
+        <item x="10"/>
+        <item x="14"/>
+        <item x="6"/>
+        <item x="15"/>
+        <item x="17"/>
+        <item x="12"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="30"/>
+        <item x="9"/>
+        <item x="43"/>
+        <item x="29"/>
+        <item x="4"/>
+        <item x="23"/>
+        <item x="68"/>
+        <item x="46"/>
+        <item x="60"/>
+        <item x="57"/>
+        <item x="1"/>
+        <item x="13"/>
+        <item x="58"/>
+        <item x="18"/>
+        <item x="26"/>
+        <item x="0"/>
+        <item x="63"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="65"/>
+        <item x="67"/>
+        <item x="69"/>
+        <item x="47"/>
+        <item x="45"/>
+        <item x="32"/>
+        <item x="75"/>
+        <item t="default"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="11">
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of ACRES" fld="1" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="2" type="count" evalOrder="-1" id="2" iMeasureFld="0">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <top10 val="10" filterVal="10"/>
+        </filterColumn>
+      </autoFilter>
+    </filter>
+  </filters>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:C182" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="9">
     <pivotField compact="0" outline="0" showAll="0">
@@ -16060,11 +16317,127 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0893053-249A-419B-918B-7F033D9D0433}">
+  <dimension ref="A3:B14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="53.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3">
+        <v>361509.01800000033</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="3">
+        <v>85712.42399999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="3">
+        <v>82992.702000000019</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="3">
+        <v>56369.796000000031</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="3">
+        <v>51340.608000000051</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" s="3">
+        <v>41897.838000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3">
+        <v>34544.088000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="3">
+        <v>15856.349999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" s="3">
+        <v>8221.3259999999973</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" s="3">
+        <v>7503.8219999999992</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14" s="3">
+        <v>745947.97200000042</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:C182"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18009,7 +18382,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I1254"/>
   <sheetViews>
@@ -50639,4 +51012,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D2B501A-21AD-4388-873A-6C02D976E1BA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/combineClean.xlsx
+++ b/combineClean.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\landfireFSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ACB0A49-B774-40DA-A50C-4A94DC675C02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA13F542-0628-4EDC-B70B-41B09BD77F5C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="885" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="885" windowWidth="24240" windowHeight="13140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="historical" sheetId="4" r:id="rId1"/>
-    <sheet name="conversion" sheetId="2" r:id="rId2"/>
-    <sheet name="combineClean" sheetId="1" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
+    <sheet name="combineClean" sheetId="1" r:id="rId1"/>
+    <sheet name="historical" sheetId="4" r:id="rId2"/>
+    <sheet name="current" sheetId="5" r:id="rId3"/>
+    <sheet name="conversion" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7884" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7965" uniqueCount="160">
   <si>
     <t>COUNT</t>
   </si>
@@ -504,6 +505,18 @@
   </si>
   <si>
     <t>Laurentian-Acadian Shrub-Herbaceous Wetland Systems Total</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>(blank)</t>
+  </si>
+  <si>
+    <t>Sum of ACRES2</t>
+  </si>
+  <si>
+    <t>Sum of ACRES3</t>
   </si>
 </sst>
 </file>
@@ -987,11 +1000,15 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1037,7 +1054,23 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -14989,7 +15022,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E79E2230-3BCC-4834-A835-D0880F2CA1E1}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E79E2230-3BCC-4834-A835-D0880F2CA1E1}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField compact="0" outline="0" showAll="0">
@@ -15243,7 +15276,412 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5BF7FA45-DBCC-483B-8B11-4D6B241BC22E}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:D80" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="77">
+        <item x="20"/>
+        <item x="7"/>
+        <item x="28"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="40"/>
+        <item x="11"/>
+        <item x="21"/>
+        <item x="61"/>
+        <item x="34"/>
+        <item x="22"/>
+        <item x="41"/>
+        <item x="66"/>
+        <item x="35"/>
+        <item x="42"/>
+        <item x="37"/>
+        <item x="56"/>
+        <item x="62"/>
+        <item x="51"/>
+        <item x="55"/>
+        <item x="49"/>
+        <item x="53"/>
+        <item x="52"/>
+        <item x="44"/>
+        <item x="50"/>
+        <item x="59"/>
+        <item x="64"/>
+        <item x="70"/>
+        <item x="71"/>
+        <item x="31"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="2"/>
+        <item x="36"/>
+        <item x="27"/>
+        <item x="33"/>
+        <item x="54"/>
+        <item x="8"/>
+        <item x="48"/>
+        <item x="16"/>
+        <item x="19"/>
+        <item x="10"/>
+        <item x="14"/>
+        <item x="6"/>
+        <item x="15"/>
+        <item x="17"/>
+        <item x="12"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="30"/>
+        <item x="9"/>
+        <item x="43"/>
+        <item x="29"/>
+        <item x="4"/>
+        <item x="23"/>
+        <item x="68"/>
+        <item x="46"/>
+        <item x="60"/>
+        <item x="57"/>
+        <item x="1"/>
+        <item x="13"/>
+        <item x="58"/>
+        <item x="18"/>
+        <item x="26"/>
+        <item x="0"/>
+        <item x="63"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="74"/>
+        <item x="65"/>
+        <item x="67"/>
+        <item x="69"/>
+        <item x="47"/>
+        <item x="45"/>
+        <item x="32"/>
+        <item x="75"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="5"/>
+  </rowFields>
+  <rowItems count="77">
+    <i>
+      <x v="43"/>
+    </i>
+    <i>
+      <x v="48"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="64"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="74"/>
+    </i>
+    <i>
+      <x v="72"/>
+    </i>
+    <i>
+      <x v="46"/>
+    </i>
+    <i>
+      <x v="59"/>
+    </i>
+    <i>
+      <x v="45"/>
+    </i>
+    <i>
+      <x v="56"/>
+    </i>
+    <i>
+      <x v="65"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="54"/>
+    </i>
+    <i>
+      <x v="73"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="49"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="60"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="58"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="66"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="51"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="62"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="52"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="69"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="63"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="61"/>
+    </i>
+    <i>
+      <x v="71"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="57"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="70"/>
+    </i>
+    <i>
+      <x v="67"/>
+    </i>
+    <i>
+      <x v="68"/>
+    </i>
+    <i>
+      <x v="55"/>
+    </i>
+    <i>
+      <x v="75"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="Sum of ACRES" fld="1" baseField="0" baseItem="0" numFmtId="3"/>
+    <dataField name="Sum of ACRES2" fld="1" showDataAs="percentOfTotal" baseField="5" baseItem="64" numFmtId="10"/>
+    <dataField name="Sum of ACRES3" fld="1" baseField="5" baseItem="43" numFmtId="10">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{E15A36E0-9728-4e99-A89B-3F7291B0FE68}">
+          <x14:dataField pivotShowAs="percentOfRunningTotal"/>
+        </ext>
+      </extLst>
+    </dataField>
+  </dataFields>
+  <formats count="5">
+    <format dxfId="4">
+      <pivotArea dataOnly="0" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="3">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="2">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="1">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="0">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:C182" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="9">
     <pivotField compact="0" outline="0" showAll="0">
@@ -16317,2072 +16755,6 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0893053-249A-419B-918B-7F033D9D0433}">
-  <dimension ref="A3:B14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="53.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="3">
-        <v>361509.01800000033</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="3">
-        <v>85712.42399999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="3">
-        <v>82992.702000000019</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="3">
-        <v>56369.796000000031</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="3">
-        <v>51340.608000000051</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>124</v>
-      </c>
-      <c r="B9" s="3">
-        <v>41897.838000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="3">
-        <v>34544.088000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="3">
-        <v>15856.349999999995</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>126</v>
-      </c>
-      <c r="B12" s="3">
-        <v>8221.3259999999973</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>94</v>
-      </c>
-      <c r="B13" s="3">
-        <v>7503.8219999999992</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>138</v>
-      </c>
-      <c r="B14" s="3">
-        <v>745947.97200000042</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:C182"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="78" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.77832564593924924</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="2">
-        <v>6.5865082035812733E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="2">
-        <v>2.7461695686663311E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="2">
-        <v>2.7305865592513721E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="2">
-        <v>2.6332599185519098E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1.8668042270256407E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1.7290423636201219E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1.4607727963643232E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1.2856654448781275E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1.1286263241359999E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>140</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.50667494788786349</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.37044850093284115</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0.30739808214672543</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="2">
-        <v>9.9400032890446466E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="2">
-        <v>6.4927442540957114E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="2">
-        <v>6.199282080944523E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="2">
-        <v>2.6842573847558452E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="2">
-        <v>2.0261649172351612E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="2">
-        <v>1.7959317920189628E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23" s="2">
-        <v>1.7236295174744672E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="2">
-        <v>1.3533284564740306E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>141</v>
-      </c>
-      <c r="C25" s="2">
-        <v>0.12002756625685979</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="2">
-        <v>0.46651568519224529</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="2">
-        <v>0.26738800152498882</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="2">
-        <v>0.11130995396582431</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="2">
-        <v>3.7495945692191265E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="2">
-        <v>2.9501135206186451E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="2">
-        <v>2.6101206903419275E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="2">
-        <v>1.9085120548085515E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="2">
-        <v>1.8965625160038468E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>22</v>
-      </c>
-      <c r="B34" t="s">
-        <v>79</v>
-      </c>
-      <c r="C34" s="2">
-        <v>1.2652285491552815E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>22</v>
-      </c>
-      <c r="B35" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" s="2">
-        <v>1.0985040315467825E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>142</v>
-      </c>
-      <c r="C36" s="2">
-        <v>0.11961645467307623</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>30</v>
-      </c>
-      <c r="B37" t="s">
-        <v>30</v>
-      </c>
-      <c r="C37" s="2">
-        <v>0.42708758344691078</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>30</v>
-      </c>
-      <c r="B38" t="s">
-        <v>28</v>
-      </c>
-      <c r="C38" s="2">
-        <v>0.19039785403626955</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>30</v>
-      </c>
-      <c r="B39" t="s">
-        <v>27</v>
-      </c>
-      <c r="C39" s="2">
-        <v>0.14003021016902067</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>30</v>
-      </c>
-      <c r="B40" t="s">
-        <v>20</v>
-      </c>
-      <c r="C40" s="2">
-        <v>9.7367027510352186E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>30</v>
-      </c>
-      <c r="B41" t="s">
-        <v>21</v>
-      </c>
-      <c r="C41" s="2">
-        <v>6.2720825050133239E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>30</v>
-      </c>
-      <c r="B42" t="s">
-        <v>16</v>
-      </c>
-      <c r="C42" s="2">
-        <v>2.4519719080152429E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>30</v>
-      </c>
-      <c r="B43" t="s">
-        <v>34</v>
-      </c>
-      <c r="C43" s="2">
-        <v>1.7913414877640133E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>30</v>
-      </c>
-      <c r="B44" t="s">
-        <v>22</v>
-      </c>
-      <c r="C44" s="2">
-        <v>1.5625949493458802E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>30</v>
-      </c>
-      <c r="B45" t="s">
-        <v>50</v>
-      </c>
-      <c r="C45" s="2">
-        <v>1.2613613674442022E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>30</v>
-      </c>
-      <c r="B46" t="s">
-        <v>69</v>
-      </c>
-      <c r="C46" s="2">
-        <v>1.1723802661620061E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>143</v>
-      </c>
-      <c r="C47" s="2">
-        <v>7.8405921640362544E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>24</v>
-      </c>
-      <c r="B48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C48" s="2">
-        <v>0.24606967551798639</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>24</v>
-      </c>
-      <c r="B49" t="s">
-        <v>21</v>
-      </c>
-      <c r="C49" s="2">
-        <v>0.1979897846411183</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>24</v>
-      </c>
-      <c r="B50" t="s">
-        <v>22</v>
-      </c>
-      <c r="C50" s="2">
-        <v>0.18912850841821241</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>24</v>
-      </c>
-      <c r="B51" t="s">
-        <v>20</v>
-      </c>
-      <c r="C51" s="2">
-        <v>0.136787239762239</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>24</v>
-      </c>
-      <c r="B52" t="s">
-        <v>16</v>
-      </c>
-      <c r="C52" s="2">
-        <v>7.5818672401604975E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>24</v>
-      </c>
-      <c r="B53" t="s">
-        <v>28</v>
-      </c>
-      <c r="C53" s="2">
-        <v>4.0338719794498032E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>24</v>
-      </c>
-      <c r="B54" t="s">
-        <v>30</v>
-      </c>
-      <c r="C54" s="2">
-        <v>3.5534713302866471E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>24</v>
-      </c>
-      <c r="B55" t="s">
-        <v>38</v>
-      </c>
-      <c r="C55" s="2">
-        <v>2.7679042583908315E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>24</v>
-      </c>
-      <c r="B56" t="s">
-        <v>42</v>
-      </c>
-      <c r="C56" s="2">
-        <v>2.546870177325089E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>24</v>
-      </c>
-      <c r="B57" t="s">
-        <v>34</v>
-      </c>
-      <c r="C57" s="2">
-        <v>2.5184941804315138E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>144</v>
-      </c>
-      <c r="C58" s="2">
-        <v>6.8362275067001405E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>124</v>
-      </c>
-      <c r="B59" t="s">
-        <v>27</v>
-      </c>
-      <c r="C59" s="2">
-        <v>0.22083443392073257</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>124</v>
-      </c>
-      <c r="B60" t="s">
-        <v>34</v>
-      </c>
-      <c r="C60" s="2">
-        <v>0.18657157591537429</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>124</v>
-      </c>
-      <c r="B61" t="s">
-        <v>21</v>
-      </c>
-      <c r="C61" s="2">
-        <v>0.1568808724199087</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>124</v>
-      </c>
-      <c r="B62" t="s">
-        <v>22</v>
-      </c>
-      <c r="C62" s="2">
-        <v>8.9745041067632689E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>124</v>
-      </c>
-      <c r="B63" t="s">
-        <v>16</v>
-      </c>
-      <c r="C63" s="2">
-        <v>8.8757656943763141E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>124</v>
-      </c>
-      <c r="B64" t="s">
-        <v>20</v>
-      </c>
-      <c r="C64" s="2">
-        <v>8.803441379570584E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>124</v>
-      </c>
-      <c r="B65" t="s">
-        <v>71</v>
-      </c>
-      <c r="C65" s="2">
-        <v>4.5363068060324772E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>124</v>
-      </c>
-      <c r="B66" t="s">
-        <v>38</v>
-      </c>
-      <c r="C66" s="2">
-        <v>4.4784473541878929E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>124</v>
-      </c>
-      <c r="B67" t="s">
-        <v>28</v>
-      </c>
-      <c r="C67" s="2">
-        <v>4.4696426549941513E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>124</v>
-      </c>
-      <c r="B68" t="s">
-        <v>42</v>
-      </c>
-      <c r="C68" s="2">
-        <v>3.4332037784737687E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>145</v>
-      </c>
-      <c r="C69" s="2">
-        <v>5.4113583187986605E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>53</v>
-      </c>
-      <c r="B70" t="s">
-        <v>16</v>
-      </c>
-      <c r="C70" s="2">
-        <v>0.39833406081769246</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>53</v>
-      </c>
-      <c r="B71" t="s">
-        <v>34</v>
-      </c>
-      <c r="C71" s="2">
-        <v>0.10353921140695475</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>53</v>
-      </c>
-      <c r="B72" t="s">
-        <v>90</v>
-      </c>
-      <c r="C72" s="2">
-        <v>0.10217517823366797</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>53</v>
-      </c>
-      <c r="B73" t="s">
-        <v>38</v>
-      </c>
-      <c r="C73" s="2">
-        <v>7.9441292012221734E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>53</v>
-      </c>
-      <c r="B74" t="s">
-        <v>27</v>
-      </c>
-      <c r="C74" s="2">
-        <v>6.8801833260584894E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>53</v>
-      </c>
-      <c r="B75" t="s">
-        <v>21</v>
-      </c>
-      <c r="C75" s="2">
-        <v>6.6728502837189008E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>53</v>
-      </c>
-      <c r="B76" t="s">
-        <v>20</v>
-      </c>
-      <c r="C76" s="2">
-        <v>5.4943256219991264E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>53</v>
-      </c>
-      <c r="B77" t="s">
-        <v>28</v>
-      </c>
-      <c r="C77" s="2">
-        <v>4.7304670449585334E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>53</v>
-      </c>
-      <c r="B78" t="s">
-        <v>22</v>
-      </c>
-      <c r="C78" s="2">
-        <v>3.9556962025316451E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>53</v>
-      </c>
-      <c r="B79" t="s">
-        <v>66</v>
-      </c>
-      <c r="C79" s="2">
-        <v>3.9175032736796164E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>146</v>
-      </c>
-      <c r="C80" s="2">
-        <v>1.8712383545326946E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>94</v>
-      </c>
-      <c r="B81" t="s">
-        <v>113</v>
-      </c>
-      <c r="C81" s="2">
-        <v>0.50750046299154272</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>94</v>
-      </c>
-      <c r="B82" t="s">
-        <v>12</v>
-      </c>
-      <c r="C82" s="2">
-        <v>0.35755293536638066</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>94</v>
-      </c>
-      <c r="B83" t="s">
-        <v>20</v>
-      </c>
-      <c r="C83" s="2">
-        <v>3.39218470275943E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>94</v>
-      </c>
-      <c r="B84" t="s">
-        <v>16</v>
-      </c>
-      <c r="C84" s="2">
-        <v>2.4939811099450586E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>94</v>
-      </c>
-      <c r="B85" t="s">
-        <v>27</v>
-      </c>
-      <c r="C85" s="2">
-        <v>1.6173837891227855E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>94</v>
-      </c>
-      <c r="B86" t="s">
-        <v>43</v>
-      </c>
-      <c r="C86" s="2">
-        <v>1.5896042965615163E-2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>94</v>
-      </c>
-      <c r="B87" t="s">
-        <v>37</v>
-      </c>
-      <c r="C87" s="2">
-        <v>1.2871164886721402E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>94</v>
-      </c>
-      <c r="B88" t="s">
-        <v>21</v>
-      </c>
-      <c r="C88" s="2">
-        <v>1.2809432681029694E-2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>94</v>
-      </c>
-      <c r="B89" t="s">
-        <v>34</v>
-      </c>
-      <c r="C89" s="2">
-        <v>9.3524291622939706E-3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>94</v>
-      </c>
-      <c r="B90" t="s">
-        <v>80</v>
-      </c>
-      <c r="C90" s="2">
-        <v>8.982035928143714E-3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>148</v>
-      </c>
-      <c r="C91" s="2">
-        <v>1.1025822095546018E-2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>126</v>
-      </c>
-      <c r="B92" t="s">
-        <v>16</v>
-      </c>
-      <c r="C92" s="2">
-        <v>0.33152995732383483</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>126</v>
-      </c>
-      <c r="B93" t="s">
-        <v>90</v>
-      </c>
-      <c r="C93" s="2">
-        <v>0.1426123189623307</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>126</v>
-      </c>
-      <c r="B94" t="s">
-        <v>21</v>
-      </c>
-      <c r="C94" s="2">
-        <v>0.10417016700830001</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>126</v>
-      </c>
-      <c r="B95" t="s">
-        <v>27</v>
-      </c>
-      <c r="C95" s="2">
-        <v>9.0728855136261291E-2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>126</v>
-      </c>
-      <c r="B96" t="s">
-        <v>20</v>
-      </c>
-      <c r="C96" s="2">
-        <v>7.40616284149333E-2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>126</v>
-      </c>
-      <c r="B97" t="s">
-        <v>34</v>
-      </c>
-      <c r="C97" s="2">
-        <v>7.1238952921805154E-2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>126</v>
-      </c>
-      <c r="B98" t="s">
-        <v>22</v>
-      </c>
-      <c r="C98" s="2">
-        <v>5.8100070566887325E-2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>126</v>
-      </c>
-      <c r="B99" t="s">
-        <v>38</v>
-      </c>
-      <c r="C99" s="2">
-        <v>4.5532443966531132E-2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>126</v>
-      </c>
-      <c r="B100" t="s">
-        <v>113</v>
-      </c>
-      <c r="C100" s="2">
-        <v>4.4121106219967066E-2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>126</v>
-      </c>
-      <c r="B101" t="s">
-        <v>12</v>
-      </c>
-      <c r="C101" s="2">
-        <v>3.7904499479149159E-2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>147</v>
-      </c>
-      <c r="C102" s="2">
-        <v>1.0127706640575159E-2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>46</v>
-      </c>
-      <c r="B103" t="s">
-        <v>27</v>
-      </c>
-      <c r="C103" s="2">
-        <v>0.25343411585144265</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>46</v>
-      </c>
-      <c r="B104" t="s">
-        <v>16</v>
-      </c>
-      <c r="C104" s="2">
-        <v>0.20045061414346971</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>46</v>
-      </c>
-      <c r="B105" t="s">
-        <v>21</v>
-      </c>
-      <c r="C105" s="2">
-        <v>0.11192673886183586</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>46</v>
-      </c>
-      <c r="B106" t="s">
-        <v>20</v>
-      </c>
-      <c r="C106" s="2">
-        <v>7.9947670615597058E-2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>46</v>
-      </c>
-      <c r="B107" t="s">
-        <v>22</v>
-      </c>
-      <c r="C107" s="2">
-        <v>7.8494076604404384E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>46</v>
-      </c>
-      <c r="B108" t="s">
-        <v>38</v>
-      </c>
-      <c r="C108" s="2">
-        <v>6.8464277927174924E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>46</v>
-      </c>
-      <c r="B109" t="s">
-        <v>12</v>
-      </c>
-      <c r="C109" s="2">
-        <v>6.2213823679046439E-2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>46</v>
-      </c>
-      <c r="B110" t="s">
-        <v>28</v>
-      </c>
-      <c r="C110" s="2">
-        <v>5.429173631804636E-2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>46</v>
-      </c>
-      <c r="B111" t="s">
-        <v>34</v>
-      </c>
-      <c r="C111" s="2">
-        <v>4.8840758776073835E-2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>46</v>
-      </c>
-      <c r="B112" t="s">
-        <v>30</v>
-      </c>
-      <c r="C112" s="2">
-        <v>4.1936187222908636E-2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>149</v>
-      </c>
-      <c r="C113" s="2">
-        <v>4.6825201003956327E-3</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>118</v>
-      </c>
-      <c r="B114" t="s">
-        <v>27</v>
-      </c>
-      <c r="C114" s="2">
-        <v>0.74614652711703133</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>118</v>
-      </c>
-      <c r="B115" t="s">
-        <v>22</v>
-      </c>
-      <c r="C115" s="2">
-        <v>5.5280685061845858E-2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>118</v>
-      </c>
-      <c r="B116" t="s">
-        <v>91</v>
-      </c>
-      <c r="C116" s="2">
-        <v>4.0723120837297809E-2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>118</v>
-      </c>
-      <c r="B117" t="s">
-        <v>98</v>
-      </c>
-      <c r="C117" s="2">
-        <v>3.9771646051379637E-2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>118</v>
-      </c>
-      <c r="B118" t="s">
-        <v>38</v>
-      </c>
-      <c r="C118" s="2">
-        <v>3.5014272121788766E-2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>118</v>
-      </c>
-      <c r="B119" t="s">
-        <v>96</v>
-      </c>
-      <c r="C119" s="2">
-        <v>2.3882017126546144E-2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>118</v>
-      </c>
-      <c r="B120" t="s">
-        <v>107</v>
-      </c>
-      <c r="C120" s="2">
-        <v>1.8648905803996193E-2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>118</v>
-      </c>
-      <c r="B121" t="s">
-        <v>34</v>
-      </c>
-      <c r="C121" s="2">
-        <v>1.4462416745956231E-2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>118</v>
-      </c>
-      <c r="B122" t="s">
-        <v>12</v>
-      </c>
-      <c r="C122" s="2">
-        <v>1.341579448144624E-2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>118</v>
-      </c>
-      <c r="B123" t="s">
-        <v>21</v>
-      </c>
-      <c r="C123" s="2">
-        <v>1.2654614652711702E-2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>150</v>
-      </c>
-      <c r="C124" s="2">
-        <v>3.5768069085804271E-3</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>114</v>
-      </c>
-      <c r="B125" t="s">
-        <v>27</v>
-      </c>
-      <c r="C125" s="2">
-        <v>0.39338641893386417</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>114</v>
-      </c>
-      <c r="B126" t="s">
-        <v>22</v>
-      </c>
-      <c r="C126" s="2">
-        <v>0.20725503207255033</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>114</v>
-      </c>
-      <c r="B127" t="s">
-        <v>16</v>
-      </c>
-      <c r="C127" s="2">
-        <v>7.3545675735456756E-2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>114</v>
-      </c>
-      <c r="B128" t="s">
-        <v>20</v>
-      </c>
-      <c r="C128" s="2">
-        <v>7.1554965715549659E-2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>114</v>
-      </c>
-      <c r="B129" t="s">
-        <v>38</v>
-      </c>
-      <c r="C129" s="2">
-        <v>6.193320061933201E-2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>114</v>
-      </c>
-      <c r="B130" t="s">
-        <v>34</v>
-      </c>
-      <c r="C130" s="2">
-        <v>5.5408095554080952E-2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>114</v>
-      </c>
-      <c r="B131" t="s">
-        <v>21</v>
-      </c>
-      <c r="C131" s="2">
-        <v>4.7113470471134705E-2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>114</v>
-      </c>
-      <c r="B132" t="s">
-        <v>91</v>
-      </c>
-      <c r="C132" s="2">
-        <v>4.0698960406989601E-2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>114</v>
-      </c>
-      <c r="B133" t="s">
-        <v>42</v>
-      </c>
-      <c r="C133" s="2">
-        <v>2.997124529971245E-2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>114</v>
-      </c>
-      <c r="B134" t="s">
-        <v>64</v>
-      </c>
-      <c r="C134" s="2">
-        <v>1.9132935191329352E-2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>151</v>
-      </c>
-      <c r="C135" s="2">
-        <v>3.0772110435189552E-3</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>86</v>
-      </c>
-      <c r="B136" t="s">
-        <v>30</v>
-      </c>
-      <c r="C136" s="2">
-        <v>0.42519685039370075</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>86</v>
-      </c>
-      <c r="B137" t="s">
-        <v>27</v>
-      </c>
-      <c r="C137" s="2">
-        <v>0.2004593175853018</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>86</v>
-      </c>
-      <c r="B138" t="s">
-        <v>28</v>
-      </c>
-      <c r="C138" s="2">
-        <v>0.14927821522309709</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>86</v>
-      </c>
-      <c r="B139" t="s">
-        <v>20</v>
-      </c>
-      <c r="C139" s="2">
-        <v>7.8083989501312331E-2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>86</v>
-      </c>
-      <c r="B140" t="s">
-        <v>21</v>
-      </c>
-      <c r="C140" s="2">
-        <v>7.2834645669291334E-2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>86</v>
-      </c>
-      <c r="B141" t="s">
-        <v>37</v>
-      </c>
-      <c r="C141" s="2">
-        <v>1.8700787401574801E-2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>86</v>
-      </c>
-      <c r="B142" t="s">
-        <v>34</v>
-      </c>
-      <c r="C142" s="2">
-        <v>1.4435695538057743E-2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>86</v>
-      </c>
-      <c r="B143" t="s">
-        <v>49</v>
-      </c>
-      <c r="C143" s="2">
-        <v>1.0826771653543307E-2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>86</v>
-      </c>
-      <c r="B144" t="s">
-        <v>50</v>
-      </c>
-      <c r="C144" s="2">
-        <v>1.0498687664041995E-2</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>86</v>
-      </c>
-      <c r="B145" t="s">
-        <v>69</v>
-      </c>
-      <c r="C145" s="2">
-        <v>9.8425196850393699E-3</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>86</v>
-      </c>
-      <c r="B146" t="s">
-        <v>22</v>
-      </c>
-      <c r="C146" s="2">
-        <v>9.8425196850393699E-3</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>152</v>
-      </c>
-      <c r="C147" s="2">
-        <v>1.0373080359042E-3</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>83</v>
-      </c>
-      <c r="B148" t="s">
-        <v>30</v>
-      </c>
-      <c r="C148" s="2">
-        <v>0.36617927527018429</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>83</v>
-      </c>
-      <c r="B149" t="s">
-        <v>27</v>
-      </c>
-      <c r="C149" s="2">
-        <v>0.20406865861411311</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>83</v>
-      </c>
-      <c r="B150" t="s">
-        <v>20</v>
-      </c>
-      <c r="C150" s="2">
-        <v>0.15638906547997455</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>83</v>
-      </c>
-      <c r="B151" t="s">
-        <v>28</v>
-      </c>
-      <c r="C151" s="2">
-        <v>6.8658614113159544E-2</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>83</v>
-      </c>
-      <c r="B152" t="s">
-        <v>49</v>
-      </c>
-      <c r="C152" s="2">
-        <v>5.6579783852511119E-2</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>83</v>
-      </c>
-      <c r="B153" t="s">
-        <v>21</v>
-      </c>
-      <c r="C153" s="2">
-        <v>5.0222504767959301E-2</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>83</v>
-      </c>
-      <c r="B154" t="s">
-        <v>16</v>
-      </c>
-      <c r="C154" s="2">
-        <v>2.9243483788938329E-2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>83</v>
-      </c>
-      <c r="B155" t="s">
-        <v>37</v>
-      </c>
-      <c r="C155" s="2">
-        <v>2.5429116338207245E-2</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>83</v>
-      </c>
-      <c r="B156" t="s">
-        <v>34</v>
-      </c>
-      <c r="C156" s="2">
-        <v>2.35219326128417E-2</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>83</v>
-      </c>
-      <c r="B157" t="s">
-        <v>50</v>
-      </c>
-      <c r="C157" s="2">
-        <v>1.9707565162110613E-2</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>153</v>
-      </c>
-      <c r="C158" s="2">
-        <v>5.3532990173139981E-4</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>72</v>
-      </c>
-      <c r="B159" t="s">
-        <v>27</v>
-      </c>
-      <c r="C159" s="2">
-        <v>0.37499999999999989</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>72</v>
-      </c>
-      <c r="B160" t="s">
-        <v>21</v>
-      </c>
-      <c r="C160" s="2">
-        <v>0.18749999999999997</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>72</v>
-      </c>
-      <c r="B161" t="s">
-        <v>22</v>
-      </c>
-      <c r="C161" s="2">
-        <v>0.12499999999999997</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>72</v>
-      </c>
-      <c r="B162" t="s">
-        <v>34</v>
-      </c>
-      <c r="C162" s="2">
-        <v>8.3333333333333315E-2</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>72</v>
-      </c>
-      <c r="B163" t="s">
-        <v>42</v>
-      </c>
-      <c r="C163" s="2">
-        <v>6.2499999999999986E-2</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>72</v>
-      </c>
-      <c r="B164" t="s">
-        <v>91</v>
-      </c>
-      <c r="C164" s="2">
-        <v>4.1666666666666657E-2</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>72</v>
-      </c>
-      <c r="B165" t="s">
-        <v>16</v>
-      </c>
-      <c r="C165" s="2">
-        <v>4.1666666666666657E-2</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>72</v>
-      </c>
-      <c r="B166" t="s">
-        <v>20</v>
-      </c>
-      <c r="C166" s="2">
-        <v>4.1666666666666657E-2</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>72</v>
-      </c>
-      <c r="B167" t="s">
-        <v>50</v>
-      </c>
-      <c r="C167" s="2">
-        <v>2.0833333333333329E-2</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>72</v>
-      </c>
-      <c r="B168" t="s">
-        <v>90</v>
-      </c>
-      <c r="C168" s="2">
-        <v>2.0833333333333329E-2</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>154</v>
-      </c>
-      <c r="C169" s="2">
-        <v>1.6335559620538585E-5</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>122</v>
-      </c>
-      <c r="B170" t="s">
-        <v>21</v>
-      </c>
-      <c r="C170" s="2">
-        <v>0.21739130434782603</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>122</v>
-      </c>
-      <c r="B171" t="s">
-        <v>30</v>
-      </c>
-      <c r="C171" s="2">
-        <v>0.17391304347826081</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>122</v>
-      </c>
-      <c r="B172" t="s">
-        <v>27</v>
-      </c>
-      <c r="C172" s="2">
-        <v>0.13043478260869562</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>122</v>
-      </c>
-      <c r="B173" t="s">
-        <v>34</v>
-      </c>
-      <c r="C173" s="2">
-        <v>8.6956521739130405E-2</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>122</v>
-      </c>
-      <c r="B174" t="s">
-        <v>28</v>
-      </c>
-      <c r="C174" s="2">
-        <v>8.6956521739130405E-2</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>122</v>
-      </c>
-      <c r="B175" t="s">
-        <v>20</v>
-      </c>
-      <c r="C175" s="2">
-        <v>8.6956521739130405E-2</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>122</v>
-      </c>
-      <c r="B176" t="s">
-        <v>12</v>
-      </c>
-      <c r="C176" s="2">
-        <v>4.3478260869565202E-2</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>122</v>
-      </c>
-      <c r="B177" t="s">
-        <v>90</v>
-      </c>
-      <c r="C177" s="2">
-        <v>4.3478260869565202E-2</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>122</v>
-      </c>
-      <c r="B178" t="s">
-        <v>43</v>
-      </c>
-      <c r="C178" s="2">
-        <v>4.3478260869565202E-2</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>122</v>
-      </c>
-      <c r="B179" t="s">
-        <v>16</v>
-      </c>
-      <c r="C179" s="2">
-        <v>4.3478260869565202E-2</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>122</v>
-      </c>
-      <c r="B180" t="s">
-        <v>22</v>
-      </c>
-      <c r="C180" s="2">
-        <v>4.3478260869565202E-2</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>155</v>
-      </c>
-      <c r="C181" s="2">
-        <v>7.8274556515080726E-6</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>138</v>
-      </c>
-      <c r="C182" s="2">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I1254"/>
   <sheetViews>
@@ -51014,7 +49386,3181 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0893053-249A-419B-918B-7F033D9D0433}">
+  <dimension ref="A3:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H8" sqref="H7:N8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="53.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3">
+        <v>361509.01800000033</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="3">
+        <v>85712.42399999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="3">
+        <v>82992.702000000019</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="3">
+        <v>56369.796000000031</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="3">
+        <v>51340.608000000051</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" s="3">
+        <v>41897.838000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3">
+        <v>34544.088000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="3">
+        <v>15856.349999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" s="3">
+        <v>8221.3259999999973</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13" s="3">
+        <v>7503.8219999999992</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B14" s="3">
+        <v>745947.97200000042</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C053C8C7-6436-481A-B955-2A875A7553D6}">
+  <dimension ref="A3:D80"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:D78"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="71.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="5">
+        <v>332433.67800000013</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.43959856752038318</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.43959856752038318</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="5">
+        <v>57272.67000000002</v>
+      </c>
+      <c r="C5" s="2">
+        <v>7.5735358227055516E-2</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.51533392574743875</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="5">
+        <v>52118.27399999999</v>
+      </c>
+      <c r="C6" s="2">
+        <v>6.891936680384958E-2</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.58425329255128833</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="5">
+        <v>44560.061999999991</v>
+      </c>
+      <c r="C7" s="2">
+        <v>5.8924653908920294E-2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.64317794646020854</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="5">
+        <v>36791.394000000008</v>
+      </c>
+      <c r="C8" s="2">
+        <v>4.8651641424482923E-2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.69182958788469151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="5">
+        <v>35819.921999999999</v>
+      </c>
+      <c r="C9" s="2">
+        <v>4.736700112523453E-2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.73919658900992602</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="5">
+        <v>34544.088000000003</v>
+      </c>
+      <c r="C10" s="2">
+        <v>4.5679883255083605E-2</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.78487647226500956</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="5">
+        <v>23620.134000000005</v>
+      </c>
+      <c r="C11" s="2">
+        <v>3.1234431882799483E-2</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.81611090414780896</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="5">
+        <v>22460.406000000006</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2.9700848490826548E-2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.84581175263863551</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="5">
+        <v>15384.155999999999</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2.0343465141068245E-2</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.86615521777970372</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="5">
+        <v>10047.941999999997</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1.3287044009205022E-2</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.87944226178890872</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="5">
+        <v>9957.1439999999966</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1.3166975937360279E-2</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.89260923772626899</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="5">
+        <v>9146.3999999999978</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1.2094876674824836E-2</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.90470411440109388</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="5">
+        <v>8561.6519999999982</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1.1321626549545986E-2</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.91602574095063982</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="5">
+        <v>6031.7399999999989</v>
+      </c>
+      <c r="C18" s="2">
+        <v>7.9761601760920103E-3</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.92400190112673186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="5">
+        <v>5757.1259999999993</v>
+      </c>
+      <c r="C19" s="2">
+        <v>7.6130203108794297E-3</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.93161492143761138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20" s="5">
+        <v>5171.0460000000003</v>
+      </c>
+      <c r="C20" s="2">
+        <v>6.8380087957935678E-3</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.93845293023340492</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" s="5">
+        <v>4029.5220000000004</v>
+      </c>
+      <c r="C21" s="2">
+        <v>5.3284977311831476E-3</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.94378142796458808</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="5">
+        <v>3537.57</v>
+      </c>
+      <c r="C22" s="2">
+        <v>4.677957762459559E-3</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.94845938572704758</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B23" s="5">
+        <v>3183.48</v>
+      </c>
+      <c r="C23" s="2">
+        <v>4.2097216387618494E-3</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.95266910736580934</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B24" s="5">
+        <v>3083.8019999999997</v>
+      </c>
+      <c r="C24" s="2">
+        <v>4.0779109682036853E-3</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.9567470183340131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="5">
+        <v>2433.7860000000001</v>
+      </c>
+      <c r="C25" s="2">
+        <v>3.2183527423811824E-3</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.95996537107639424</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" s="5">
+        <v>2309.0219999999999</v>
+      </c>
+      <c r="C26" s="2">
+        <v>3.0533692304576007E-3</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.96301874030685175</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="5">
+        <v>2289.4860000000008</v>
+      </c>
+      <c r="C27" s="2">
+        <v>3.0275355132880731E-3</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.96604627582013991</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="5">
+        <v>2163.3900000000003</v>
+      </c>
+      <c r="C28" s="2">
+        <v>2.8607906115574776E-3</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0.96890706643169744</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="5">
+        <v>2147.1840000000002</v>
+      </c>
+      <c r="C29" s="2">
+        <v>2.8393603689054821E-3</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0.97174642680060286</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="5">
+        <v>1960.2599999999998</v>
+      </c>
+      <c r="C30" s="2">
+        <v>2.5921786659879446E-3</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0.9743386054665909</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="5">
+        <v>1940.7239999999995</v>
+      </c>
+      <c r="C31" s="2">
+        <v>2.5663449488184152E-3</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0.97690495041540937</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" s="5">
+        <v>1555.998</v>
+      </c>
+      <c r="C32" s="2">
+        <v>2.0575968595594003E-3</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0.97896254727496879</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="5">
+        <v>1516.038</v>
+      </c>
+      <c r="C33" s="2">
+        <v>2.0047551653490005E-3</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0.98096730244031771</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="5">
+        <v>1435.008</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1.8976039520890234E-3</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0.98286490639240676</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" s="5">
+        <v>1414.5840000000001</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1.8705959750481523E-3</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0.984735502367455</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B36" s="5">
+        <v>1355.7539999999999</v>
+      </c>
+      <c r="C36" s="2">
+        <v>1.7928012585717303E-3</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0.98652830362602661</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" s="5">
+        <v>1303.1400000000001</v>
+      </c>
+      <c r="C37" s="2">
+        <v>1.7232263611947041E-3</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0.98825152998722132</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38" s="5">
+        <v>1223.664</v>
+      </c>
+      <c r="C38" s="2">
+        <v>1.6181301027095756E-3</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0.98986966008993094</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="5">
+        <v>1123.9859999999996</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1.4863194321514113E-3</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0.99135597952208232</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" s="5">
+        <v>1101.1199999999997</v>
+      </c>
+      <c r="C40" s="2">
+        <v>1.4560822404643492E-3</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0.99281206176254666</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" s="5">
+        <v>1097.5679999999998</v>
+      </c>
+      <c r="C41" s="2">
+        <v>1.4513852009789803E-3</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0.99426344696352564</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B42" s="5">
+        <v>1053.6119999999999</v>
+      </c>
+      <c r="C42" s="2">
+        <v>1.3932593373475407E-3</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0.99565670630087311</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B43" s="5">
+        <v>749.47199999999998</v>
+      </c>
+      <c r="C43" s="2">
+        <v>9.9107533141283154E-4</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0.99664778163228596</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44" s="5">
+        <v>368.96399999999994</v>
+      </c>
+      <c r="C44" s="2">
+        <v>4.8790497654269127E-4</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0.99713568660882868</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B45" s="5">
+        <v>349.87200000000007</v>
+      </c>
+      <c r="C45" s="2">
+        <v>4.6265838930883372E-4</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0.99759834499813749</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" s="5">
+        <v>258.85199999999998</v>
+      </c>
+      <c r="C46" s="2">
+        <v>3.4229675249625635E-4</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0.99794064175063368</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" s="5">
+        <v>238.87200000000001</v>
+      </c>
+      <c r="C47" s="2">
+        <v>3.1587590539105647E-4</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0.99825651765602463</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B48" s="5">
+        <v>229.10400000000004</v>
+      </c>
+      <c r="C48" s="2">
+        <v>3.0295904680629213E-4</v>
+      </c>
+      <c r="D48" s="2">
+        <v>0.99855947670283107</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B49" s="5">
+        <v>190.47600000000006</v>
+      </c>
+      <c r="C49" s="2">
+        <v>2.5187874240290573E-4</v>
+      </c>
+      <c r="D49" s="2">
+        <v>0.99881135544523392</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B50" s="5">
+        <v>152.51400000000001</v>
+      </c>
+      <c r="C50" s="2">
+        <v>2.0167913290302584E-4</v>
+      </c>
+      <c r="D50" s="2">
+        <v>0.99901303457813695</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B51" s="5">
+        <v>93.461999999999989</v>
+      </c>
+      <c r="C51" s="2">
+        <v>1.2359085145876837E-4</v>
+      </c>
+      <c r="D51" s="2">
+        <v>0.9991366254295958</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B52" s="5">
+        <v>79.476000000000028</v>
+      </c>
+      <c r="C52" s="2">
+        <v>1.050962584851285E-4</v>
+      </c>
+      <c r="D52" s="2">
+        <v>0.9992417216880809</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="B53" s="5">
+        <v>79.254000000000005</v>
+      </c>
+      <c r="C53" s="2">
+        <v>1.0480269351729291E-4</v>
+      </c>
+      <c r="D53" s="2">
+        <v>0.99934652438159821</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B54" s="5">
+        <v>69.708000000000013</v>
+      </c>
+      <c r="C54" s="2">
+        <v>9.2179399900364084E-5</v>
+      </c>
+      <c r="D54" s="2">
+        <v>0.99943870378149857</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B55" s="5">
+        <v>62.382000000000019</v>
+      </c>
+      <c r="C55" s="2">
+        <v>8.2491755961790799E-5</v>
+      </c>
+      <c r="D55" s="2">
+        <v>0.99952119553746033</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B56" s="5">
+        <v>54.834000000000003</v>
+      </c>
+      <c r="C56" s="2">
+        <v>7.2510547055381933E-5</v>
+      </c>
+      <c r="D56" s="2">
+        <v>0.9995937060845157</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B57" s="5">
+        <v>43.068000000000005</v>
+      </c>
+      <c r="C57" s="2">
+        <v>5.6951603760097552E-5</v>
+      </c>
+      <c r="D57" s="2">
+        <v>0.99965065768827577</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B58" s="5">
+        <v>40.625999999999998</v>
+      </c>
+      <c r="C58" s="2">
+        <v>5.3722389113906445E-5</v>
+      </c>
+      <c r="D58" s="2">
+        <v>0.99970438007738971</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B59" s="5">
+        <v>34.854000000000006</v>
+      </c>
+      <c r="C59" s="2">
+        <v>4.6089699950182042E-5</v>
+      </c>
+      <c r="D59" s="2">
+        <v>0.99975046977733995</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B60" s="5">
+        <v>29.082000000000001</v>
+      </c>
+      <c r="C60" s="2">
+        <v>3.8457010786457618E-5</v>
+      </c>
+      <c r="D60" s="2">
+        <v>0.99978892678812648</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B61" s="5">
+        <v>21.312000000000001</v>
+      </c>
+      <c r="C61" s="2">
+        <v>2.8182236912213218E-5</v>
+      </c>
+      <c r="D61" s="2">
+        <v>0.99981710902503873</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B62" s="5">
+        <v>21.312000000000001</v>
+      </c>
+      <c r="C62" s="2">
+        <v>2.8182236912213218E-5</v>
+      </c>
+      <c r="D62" s="2">
+        <v>0.99984529126195099</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B63" s="5">
+        <v>18.204000000000001</v>
+      </c>
+      <c r="C63" s="2">
+        <v>2.4072327362515458E-5</v>
+      </c>
+      <c r="D63" s="2">
+        <v>0.99986936358931355</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B64" s="5">
+        <v>16.650000000000002</v>
+      </c>
+      <c r="C64" s="2">
+        <v>2.201737258766658E-5</v>
+      </c>
+      <c r="D64" s="2">
+        <v>0.99989138096190133</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B65" s="5">
+        <v>15.984</v>
+      </c>
+      <c r="C65" s="2">
+        <v>2.1136677684159913E-5</v>
+      </c>
+      <c r="D65" s="2">
+        <v>0.99991251763958555</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" s="5">
+        <v>12.21</v>
+      </c>
+      <c r="C66" s="2">
+        <v>1.614607323095549E-5</v>
+      </c>
+      <c r="D66" s="2">
+        <v>0.99992866371281641</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B67" s="5">
+        <v>11.988</v>
+      </c>
+      <c r="C67" s="2">
+        <v>1.5852508263119933E-5</v>
+      </c>
+      <c r="D67" s="2">
+        <v>0.9999445162210796</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B68" s="5">
+        <v>10.212000000000002</v>
+      </c>
+      <c r="C68" s="2">
+        <v>1.3503988520435502E-5</v>
+      </c>
+      <c r="D68" s="2">
+        <v>0.99995802020960012</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B69" s="5">
+        <v>7.3260000000000005</v>
+      </c>
+      <c r="C69" s="2">
+        <v>9.6876439385732949E-6</v>
+      </c>
+      <c r="D69" s="2">
+        <v>0.99996770785353861</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B70" s="5">
+        <v>6.2160000000000002</v>
+      </c>
+      <c r="C70" s="2">
+        <v>8.2198190993955224E-6</v>
+      </c>
+      <c r="D70" s="2">
+        <v>0.9999759276726381</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B71" s="5">
+        <v>5.5500000000000007</v>
+      </c>
+      <c r="C71" s="2">
+        <v>7.3391241958888598E-6</v>
+      </c>
+      <c r="D71" s="2">
+        <v>0.99998326679683402</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B72" s="5">
+        <v>3.9960000000000004</v>
+      </c>
+      <c r="C72" s="2">
+        <v>5.2841694210399792E-6</v>
+      </c>
+      <c r="D72" s="2">
+        <v>0.99998855096625516</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B73" s="5">
+        <v>3.1080000000000001</v>
+      </c>
+      <c r="C73" s="2">
+        <v>4.1099095496977612E-6</v>
+      </c>
+      <c r="D73" s="2">
+        <v>0.99999266087580485</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B74" s="5">
+        <v>2.8860000000000001</v>
+      </c>
+      <c r="C74" s="2">
+        <v>3.8163445818622067E-6</v>
+      </c>
+      <c r="D74" s="2">
+        <v>0.99999647722038676</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B75" s="5">
+        <v>1.776</v>
+      </c>
+      <c r="C75" s="2">
+        <v>2.3485197426844347E-6</v>
+      </c>
+      <c r="D75" s="2">
+        <v>0.99999882574012933</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B76" s="5">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="C76" s="2">
+        <v>5.8712993567110867E-7</v>
+      </c>
+      <c r="D76" s="2">
+        <v>0.99999941287006511</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="B77" s="5">
+        <v>0.222</v>
+      </c>
+      <c r="C77" s="2">
+        <v>2.9356496783555434E-7</v>
+      </c>
+      <c r="D77" s="2">
+        <v>0.99999970643503289</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B78" s="5">
+        <v>0.222</v>
+      </c>
+      <c r="C78" s="2">
+        <v>2.9356496783555434E-7</v>
+      </c>
+      <c r="D78" s="2">
+        <v>1.0000000000000007</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C79" s="2">
+        <v>0</v>
+      </c>
+      <c r="D79" s="2">
+        <v>1.0000000000000007</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B80" s="5">
+        <v>756221.02199999988</v>
+      </c>
+      <c r="C80" s="2">
+        <v>1</v>
+      </c>
+      <c r="D80" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A3:C182"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="78" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.77832564593924924</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="2">
+        <v>6.5865082035812733E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2.7461695686663311E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2.7305865592513721E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2.6332599185519098E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1.8668042270256407E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1.7290423636201219E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1.4607727963643232E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1.2856654448781275E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1.1286263241359999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>140</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.50667494788786349</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.37044850093284115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.30739808214672543</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="2">
+        <v>9.9400032890446466E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="2">
+        <v>6.4927442540957114E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="2">
+        <v>6.199282080944523E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2.6842573847558452E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="2">
+        <v>2.0261649172351612E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1.7959317920189628E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1.7236295174744672E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1.3533284564740306E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>141</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.12002756625685979</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.46651568519224529</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.26738800152498882</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.11130995396582431</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="2">
+        <v>3.7495945692191265E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="2">
+        <v>2.9501135206186451E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="2">
+        <v>2.6101206903419275E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1.9085120548085515E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1.8965625160038468E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1.2652285491552815E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1.0985040315467825E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>142</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0.11961645467307623</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0.42708758344691078</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0.19039785403626955</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" t="s">
+        <v>27</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0.14003021016902067</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="2">
+        <v>9.7367027510352186E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="2">
+        <v>6.2720825050133239E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" s="2">
+        <v>2.4519719080152429E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" s="2">
+        <v>1.7913414877640133E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>30</v>
+      </c>
+      <c r="B44" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" s="2">
+        <v>1.5625949493458802E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="2">
+        <v>1.2613613674442022E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>30</v>
+      </c>
+      <c r="B46" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" s="2">
+        <v>1.1723802661620061E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>143</v>
+      </c>
+      <c r="C47" s="2">
+        <v>7.8405921640362544E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>24</v>
+      </c>
+      <c r="B48" t="s">
+        <v>27</v>
+      </c>
+      <c r="C48" s="2">
+        <v>0.24606967551798639</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>24</v>
+      </c>
+      <c r="B49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49" s="2">
+        <v>0.1979897846411183</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50" s="2">
+        <v>0.18912850841821241</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>24</v>
+      </c>
+      <c r="B51" t="s">
+        <v>20</v>
+      </c>
+      <c r="C51" s="2">
+        <v>0.136787239762239</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>24</v>
+      </c>
+      <c r="B52" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" s="2">
+        <v>7.5818672401604975E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>24</v>
+      </c>
+      <c r="B53" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53" s="2">
+        <v>4.0338719794498032E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>24</v>
+      </c>
+      <c r="B54" t="s">
+        <v>30</v>
+      </c>
+      <c r="C54" s="2">
+        <v>3.5534713302866471E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>24</v>
+      </c>
+      <c r="B55" t="s">
+        <v>38</v>
+      </c>
+      <c r="C55" s="2">
+        <v>2.7679042583908315E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>24</v>
+      </c>
+      <c r="B56" t="s">
+        <v>42</v>
+      </c>
+      <c r="C56" s="2">
+        <v>2.546870177325089E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>24</v>
+      </c>
+      <c r="B57" t="s">
+        <v>34</v>
+      </c>
+      <c r="C57" s="2">
+        <v>2.5184941804315138E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>144</v>
+      </c>
+      <c r="C58" s="2">
+        <v>6.8362275067001405E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>124</v>
+      </c>
+      <c r="B59" t="s">
+        <v>27</v>
+      </c>
+      <c r="C59" s="2">
+        <v>0.22083443392073257</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>124</v>
+      </c>
+      <c r="B60" t="s">
+        <v>34</v>
+      </c>
+      <c r="C60" s="2">
+        <v>0.18657157591537429</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>124</v>
+      </c>
+      <c r="B61" t="s">
+        <v>21</v>
+      </c>
+      <c r="C61" s="2">
+        <v>0.1568808724199087</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>124</v>
+      </c>
+      <c r="B62" t="s">
+        <v>22</v>
+      </c>
+      <c r="C62" s="2">
+        <v>8.9745041067632689E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>124</v>
+      </c>
+      <c r="B63" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" s="2">
+        <v>8.8757656943763141E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>124</v>
+      </c>
+      <c r="B64" t="s">
+        <v>20</v>
+      </c>
+      <c r="C64" s="2">
+        <v>8.803441379570584E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>124</v>
+      </c>
+      <c r="B65" t="s">
+        <v>71</v>
+      </c>
+      <c r="C65" s="2">
+        <v>4.5363068060324772E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>124</v>
+      </c>
+      <c r="B66" t="s">
+        <v>38</v>
+      </c>
+      <c r="C66" s="2">
+        <v>4.4784473541878929E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>124</v>
+      </c>
+      <c r="B67" t="s">
+        <v>28</v>
+      </c>
+      <c r="C67" s="2">
+        <v>4.4696426549941513E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>124</v>
+      </c>
+      <c r="B68" t="s">
+        <v>42</v>
+      </c>
+      <c r="C68" s="2">
+        <v>3.4332037784737687E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>145</v>
+      </c>
+      <c r="C69" s="2">
+        <v>5.4113583187986605E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>53</v>
+      </c>
+      <c r="B70" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" s="2">
+        <v>0.39833406081769246</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>53</v>
+      </c>
+      <c r="B71" t="s">
+        <v>34</v>
+      </c>
+      <c r="C71" s="2">
+        <v>0.10353921140695475</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>53</v>
+      </c>
+      <c r="B72" t="s">
+        <v>90</v>
+      </c>
+      <c r="C72" s="2">
+        <v>0.10217517823366797</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>53</v>
+      </c>
+      <c r="B73" t="s">
+        <v>38</v>
+      </c>
+      <c r="C73" s="2">
+        <v>7.9441292012221734E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>53</v>
+      </c>
+      <c r="B74" t="s">
+        <v>27</v>
+      </c>
+      <c r="C74" s="2">
+        <v>6.8801833260584894E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>53</v>
+      </c>
+      <c r="B75" t="s">
+        <v>21</v>
+      </c>
+      <c r="C75" s="2">
+        <v>6.6728502837189008E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>53</v>
+      </c>
+      <c r="B76" t="s">
+        <v>20</v>
+      </c>
+      <c r="C76" s="2">
+        <v>5.4943256219991264E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>53</v>
+      </c>
+      <c r="B77" t="s">
+        <v>28</v>
+      </c>
+      <c r="C77" s="2">
+        <v>4.7304670449585334E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>53</v>
+      </c>
+      <c r="B78" t="s">
+        <v>22</v>
+      </c>
+      <c r="C78" s="2">
+        <v>3.9556962025316451E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>53</v>
+      </c>
+      <c r="B79" t="s">
+        <v>66</v>
+      </c>
+      <c r="C79" s="2">
+        <v>3.9175032736796164E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>146</v>
+      </c>
+      <c r="C80" s="2">
+        <v>1.8712383545326946E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>94</v>
+      </c>
+      <c r="B81" t="s">
+        <v>113</v>
+      </c>
+      <c r="C81" s="2">
+        <v>0.50750046299154272</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>94</v>
+      </c>
+      <c r="B82" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82" s="2">
+        <v>0.35755293536638066</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>94</v>
+      </c>
+      <c r="B83" t="s">
+        <v>20</v>
+      </c>
+      <c r="C83" s="2">
+        <v>3.39218470275943E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>94</v>
+      </c>
+      <c r="B84" t="s">
+        <v>16</v>
+      </c>
+      <c r="C84" s="2">
+        <v>2.4939811099450586E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>94</v>
+      </c>
+      <c r="B85" t="s">
+        <v>27</v>
+      </c>
+      <c r="C85" s="2">
+        <v>1.6173837891227855E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>94</v>
+      </c>
+      <c r="B86" t="s">
+        <v>43</v>
+      </c>
+      <c r="C86" s="2">
+        <v>1.5896042965615163E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>94</v>
+      </c>
+      <c r="B87" t="s">
+        <v>37</v>
+      </c>
+      <c r="C87" s="2">
+        <v>1.2871164886721402E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>94</v>
+      </c>
+      <c r="B88" t="s">
+        <v>21</v>
+      </c>
+      <c r="C88" s="2">
+        <v>1.2809432681029694E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>94</v>
+      </c>
+      <c r="B89" t="s">
+        <v>34</v>
+      </c>
+      <c r="C89" s="2">
+        <v>9.3524291622939706E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>94</v>
+      </c>
+      <c r="B90" t="s">
+        <v>80</v>
+      </c>
+      <c r="C90" s="2">
+        <v>8.982035928143714E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>148</v>
+      </c>
+      <c r="C91" s="2">
+        <v>1.1025822095546018E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>126</v>
+      </c>
+      <c r="B92" t="s">
+        <v>16</v>
+      </c>
+      <c r="C92" s="2">
+        <v>0.33152995732383483</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>126</v>
+      </c>
+      <c r="B93" t="s">
+        <v>90</v>
+      </c>
+      <c r="C93" s="2">
+        <v>0.1426123189623307</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>126</v>
+      </c>
+      <c r="B94" t="s">
+        <v>21</v>
+      </c>
+      <c r="C94" s="2">
+        <v>0.10417016700830001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>126</v>
+      </c>
+      <c r="B95" t="s">
+        <v>27</v>
+      </c>
+      <c r="C95" s="2">
+        <v>9.0728855136261291E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>126</v>
+      </c>
+      <c r="B96" t="s">
+        <v>20</v>
+      </c>
+      <c r="C96" s="2">
+        <v>7.40616284149333E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>126</v>
+      </c>
+      <c r="B97" t="s">
+        <v>34</v>
+      </c>
+      <c r="C97" s="2">
+        <v>7.1238952921805154E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>126</v>
+      </c>
+      <c r="B98" t="s">
+        <v>22</v>
+      </c>
+      <c r="C98" s="2">
+        <v>5.8100070566887325E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>126</v>
+      </c>
+      <c r="B99" t="s">
+        <v>38</v>
+      </c>
+      <c r="C99" s="2">
+        <v>4.5532443966531132E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>126</v>
+      </c>
+      <c r="B100" t="s">
+        <v>113</v>
+      </c>
+      <c r="C100" s="2">
+        <v>4.4121106219967066E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>126</v>
+      </c>
+      <c r="B101" t="s">
+        <v>12</v>
+      </c>
+      <c r="C101" s="2">
+        <v>3.7904499479149159E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>147</v>
+      </c>
+      <c r="C102" s="2">
+        <v>1.0127706640575159E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>46</v>
+      </c>
+      <c r="B103" t="s">
+        <v>27</v>
+      </c>
+      <c r="C103" s="2">
+        <v>0.25343411585144265</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>46</v>
+      </c>
+      <c r="B104" t="s">
+        <v>16</v>
+      </c>
+      <c r="C104" s="2">
+        <v>0.20045061414346971</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>46</v>
+      </c>
+      <c r="B105" t="s">
+        <v>21</v>
+      </c>
+      <c r="C105" s="2">
+        <v>0.11192673886183586</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>46</v>
+      </c>
+      <c r="B106" t="s">
+        <v>20</v>
+      </c>
+      <c r="C106" s="2">
+        <v>7.9947670615597058E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>46</v>
+      </c>
+      <c r="B107" t="s">
+        <v>22</v>
+      </c>
+      <c r="C107" s="2">
+        <v>7.8494076604404384E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>46</v>
+      </c>
+      <c r="B108" t="s">
+        <v>38</v>
+      </c>
+      <c r="C108" s="2">
+        <v>6.8464277927174924E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>46</v>
+      </c>
+      <c r="B109" t="s">
+        <v>12</v>
+      </c>
+      <c r="C109" s="2">
+        <v>6.2213823679046439E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>46</v>
+      </c>
+      <c r="B110" t="s">
+        <v>28</v>
+      </c>
+      <c r="C110" s="2">
+        <v>5.429173631804636E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>46</v>
+      </c>
+      <c r="B111" t="s">
+        <v>34</v>
+      </c>
+      <c r="C111" s="2">
+        <v>4.8840758776073835E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>46</v>
+      </c>
+      <c r="B112" t="s">
+        <v>30</v>
+      </c>
+      <c r="C112" s="2">
+        <v>4.1936187222908636E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>149</v>
+      </c>
+      <c r="C113" s="2">
+        <v>4.6825201003956327E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>118</v>
+      </c>
+      <c r="B114" t="s">
+        <v>27</v>
+      </c>
+      <c r="C114" s="2">
+        <v>0.74614652711703133</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>118</v>
+      </c>
+      <c r="B115" t="s">
+        <v>22</v>
+      </c>
+      <c r="C115" s="2">
+        <v>5.5280685061845858E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>118</v>
+      </c>
+      <c r="B116" t="s">
+        <v>91</v>
+      </c>
+      <c r="C116" s="2">
+        <v>4.0723120837297809E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>118</v>
+      </c>
+      <c r="B117" t="s">
+        <v>98</v>
+      </c>
+      <c r="C117" s="2">
+        <v>3.9771646051379637E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>118</v>
+      </c>
+      <c r="B118" t="s">
+        <v>38</v>
+      </c>
+      <c r="C118" s="2">
+        <v>3.5014272121788766E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>96</v>
+      </c>
+      <c r="C119" s="2">
+        <v>2.3882017126546144E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>107</v>
+      </c>
+      <c r="C120" s="2">
+        <v>1.8648905803996193E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>118</v>
+      </c>
+      <c r="B121" t="s">
+        <v>34</v>
+      </c>
+      <c r="C121" s="2">
+        <v>1.4462416745956231E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>118</v>
+      </c>
+      <c r="B122" t="s">
+        <v>12</v>
+      </c>
+      <c r="C122" s="2">
+        <v>1.341579448144624E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>118</v>
+      </c>
+      <c r="B123" t="s">
+        <v>21</v>
+      </c>
+      <c r="C123" s="2">
+        <v>1.2654614652711702E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>150</v>
+      </c>
+      <c r="C124" s="2">
+        <v>3.5768069085804271E-3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>114</v>
+      </c>
+      <c r="B125" t="s">
+        <v>27</v>
+      </c>
+      <c r="C125" s="2">
+        <v>0.39338641893386417</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>114</v>
+      </c>
+      <c r="B126" t="s">
+        <v>22</v>
+      </c>
+      <c r="C126" s="2">
+        <v>0.20725503207255033</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>114</v>
+      </c>
+      <c r="B127" t="s">
+        <v>16</v>
+      </c>
+      <c r="C127" s="2">
+        <v>7.3545675735456756E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>114</v>
+      </c>
+      <c r="B128" t="s">
+        <v>20</v>
+      </c>
+      <c r="C128" s="2">
+        <v>7.1554965715549659E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>114</v>
+      </c>
+      <c r="B129" t="s">
+        <v>38</v>
+      </c>
+      <c r="C129" s="2">
+        <v>6.193320061933201E-2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>114</v>
+      </c>
+      <c r="B130" t="s">
+        <v>34</v>
+      </c>
+      <c r="C130" s="2">
+        <v>5.5408095554080952E-2</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>114</v>
+      </c>
+      <c r="B131" t="s">
+        <v>21</v>
+      </c>
+      <c r="C131" s="2">
+        <v>4.7113470471134705E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>114</v>
+      </c>
+      <c r="B132" t="s">
+        <v>91</v>
+      </c>
+      <c r="C132" s="2">
+        <v>4.0698960406989601E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>114</v>
+      </c>
+      <c r="B133" t="s">
+        <v>42</v>
+      </c>
+      <c r="C133" s="2">
+        <v>2.997124529971245E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>114</v>
+      </c>
+      <c r="B134" t="s">
+        <v>64</v>
+      </c>
+      <c r="C134" s="2">
+        <v>1.9132935191329352E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>151</v>
+      </c>
+      <c r="C135" s="2">
+        <v>3.0772110435189552E-3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>86</v>
+      </c>
+      <c r="B136" t="s">
+        <v>30</v>
+      </c>
+      <c r="C136" s="2">
+        <v>0.42519685039370075</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>86</v>
+      </c>
+      <c r="B137" t="s">
+        <v>27</v>
+      </c>
+      <c r="C137" s="2">
+        <v>0.2004593175853018</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>86</v>
+      </c>
+      <c r="B138" t="s">
+        <v>28</v>
+      </c>
+      <c r="C138" s="2">
+        <v>0.14927821522309709</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>86</v>
+      </c>
+      <c r="B139" t="s">
+        <v>20</v>
+      </c>
+      <c r="C139" s="2">
+        <v>7.8083989501312331E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>86</v>
+      </c>
+      <c r="B140" t="s">
+        <v>21</v>
+      </c>
+      <c r="C140" s="2">
+        <v>7.2834645669291334E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>86</v>
+      </c>
+      <c r="B141" t="s">
+        <v>37</v>
+      </c>
+      <c r="C141" s="2">
+        <v>1.8700787401574801E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>86</v>
+      </c>
+      <c r="B142" t="s">
+        <v>34</v>
+      </c>
+      <c r="C142" s="2">
+        <v>1.4435695538057743E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>86</v>
+      </c>
+      <c r="B143" t="s">
+        <v>49</v>
+      </c>
+      <c r="C143" s="2">
+        <v>1.0826771653543307E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>86</v>
+      </c>
+      <c r="B144" t="s">
+        <v>50</v>
+      </c>
+      <c r="C144" s="2">
+        <v>1.0498687664041995E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>86</v>
+      </c>
+      <c r="B145" t="s">
+        <v>69</v>
+      </c>
+      <c r="C145" s="2">
+        <v>9.8425196850393699E-3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>86</v>
+      </c>
+      <c r="B146" t="s">
+        <v>22</v>
+      </c>
+      <c r="C146" s="2">
+        <v>9.8425196850393699E-3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>152</v>
+      </c>
+      <c r="C147" s="2">
+        <v>1.0373080359042E-3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>83</v>
+      </c>
+      <c r="B148" t="s">
+        <v>30</v>
+      </c>
+      <c r="C148" s="2">
+        <v>0.36617927527018429</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>83</v>
+      </c>
+      <c r="B149" t="s">
+        <v>27</v>
+      </c>
+      <c r="C149" s="2">
+        <v>0.20406865861411311</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>83</v>
+      </c>
+      <c r="B150" t="s">
+        <v>20</v>
+      </c>
+      <c r="C150" s="2">
+        <v>0.15638906547997455</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>83</v>
+      </c>
+      <c r="B151" t="s">
+        <v>28</v>
+      </c>
+      <c r="C151" s="2">
+        <v>6.8658614113159544E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>83</v>
+      </c>
+      <c r="B152" t="s">
+        <v>49</v>
+      </c>
+      <c r="C152" s="2">
+        <v>5.6579783852511119E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>83</v>
+      </c>
+      <c r="B153" t="s">
+        <v>21</v>
+      </c>
+      <c r="C153" s="2">
+        <v>5.0222504767959301E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>83</v>
+      </c>
+      <c r="B154" t="s">
+        <v>16</v>
+      </c>
+      <c r="C154" s="2">
+        <v>2.9243483788938329E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>83</v>
+      </c>
+      <c r="B155" t="s">
+        <v>37</v>
+      </c>
+      <c r="C155" s="2">
+        <v>2.5429116338207245E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>83</v>
+      </c>
+      <c r="B156" t="s">
+        <v>34</v>
+      </c>
+      <c r="C156" s="2">
+        <v>2.35219326128417E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>83</v>
+      </c>
+      <c r="B157" t="s">
+        <v>50</v>
+      </c>
+      <c r="C157" s="2">
+        <v>1.9707565162110613E-2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>153</v>
+      </c>
+      <c r="C158" s="2">
+        <v>5.3532990173139981E-4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>72</v>
+      </c>
+      <c r="B159" t="s">
+        <v>27</v>
+      </c>
+      <c r="C159" s="2">
+        <v>0.37499999999999989</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>72</v>
+      </c>
+      <c r="B160" t="s">
+        <v>21</v>
+      </c>
+      <c r="C160" s="2">
+        <v>0.18749999999999997</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>72</v>
+      </c>
+      <c r="B161" t="s">
+        <v>22</v>
+      </c>
+      <c r="C161" s="2">
+        <v>0.12499999999999997</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>72</v>
+      </c>
+      <c r="B162" t="s">
+        <v>34</v>
+      </c>
+      <c r="C162" s="2">
+        <v>8.3333333333333315E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>72</v>
+      </c>
+      <c r="B163" t="s">
+        <v>42</v>
+      </c>
+      <c r="C163" s="2">
+        <v>6.2499999999999986E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>72</v>
+      </c>
+      <c r="B164" t="s">
+        <v>91</v>
+      </c>
+      <c r="C164" s="2">
+        <v>4.1666666666666657E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>72</v>
+      </c>
+      <c r="B165" t="s">
+        <v>16</v>
+      </c>
+      <c r="C165" s="2">
+        <v>4.1666666666666657E-2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>72</v>
+      </c>
+      <c r="B166" t="s">
+        <v>20</v>
+      </c>
+      <c r="C166" s="2">
+        <v>4.1666666666666657E-2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>72</v>
+      </c>
+      <c r="B167" t="s">
+        <v>50</v>
+      </c>
+      <c r="C167" s="2">
+        <v>2.0833333333333329E-2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>72</v>
+      </c>
+      <c r="B168" t="s">
+        <v>90</v>
+      </c>
+      <c r="C168" s="2">
+        <v>2.0833333333333329E-2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>154</v>
+      </c>
+      <c r="C169" s="2">
+        <v>1.6335559620538585E-5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>122</v>
+      </c>
+      <c r="B170" t="s">
+        <v>21</v>
+      </c>
+      <c r="C170" s="2">
+        <v>0.21739130434782603</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>122</v>
+      </c>
+      <c r="B171" t="s">
+        <v>30</v>
+      </c>
+      <c r="C171" s="2">
+        <v>0.17391304347826081</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>122</v>
+      </c>
+      <c r="B172" t="s">
+        <v>27</v>
+      </c>
+      <c r="C172" s="2">
+        <v>0.13043478260869562</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>122</v>
+      </c>
+      <c r="B173" t="s">
+        <v>34</v>
+      </c>
+      <c r="C173" s="2">
+        <v>8.6956521739130405E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>122</v>
+      </c>
+      <c r="B174" t="s">
+        <v>28</v>
+      </c>
+      <c r="C174" s="2">
+        <v>8.6956521739130405E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>122</v>
+      </c>
+      <c r="B175" t="s">
+        <v>20</v>
+      </c>
+      <c r="C175" s="2">
+        <v>8.6956521739130405E-2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>122</v>
+      </c>
+      <c r="B176" t="s">
+        <v>12</v>
+      </c>
+      <c r="C176" s="2">
+        <v>4.3478260869565202E-2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>122</v>
+      </c>
+      <c r="B177" t="s">
+        <v>90</v>
+      </c>
+      <c r="C177" s="2">
+        <v>4.3478260869565202E-2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>122</v>
+      </c>
+      <c r="B178" t="s">
+        <v>43</v>
+      </c>
+      <c r="C178" s="2">
+        <v>4.3478260869565202E-2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>122</v>
+      </c>
+      <c r="B179" t="s">
+        <v>16</v>
+      </c>
+      <c r="C179" s="2">
+        <v>4.3478260869565202E-2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>122</v>
+      </c>
+      <c r="B180" t="s">
+        <v>22</v>
+      </c>
+      <c r="C180" s="2">
+        <v>4.3478260869565202E-2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>155</v>
+      </c>
+      <c r="C181" s="2">
+        <v>7.8274556515080726E-6</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>138</v>
+      </c>
+      <c r="C182" s="2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D2B501A-21AD-4388-873A-6C02D976E1BA}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/combineClean.xlsx
+++ b/combineClean.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\landfireFSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3286D23-A6F8-485B-B15B-492FD4D9AFFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6F13AC-C476-44BF-96DF-FACDBB158C01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="885" windowWidth="24240" windowHeight="13140" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -15044,7 +15044,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E79E2230-3BCC-4834-A835-D0880F2CA1E1}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="2">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E79E2230-3BCC-4834-A835-D0880F2CA1E1}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="2">
   <location ref="A3:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField compact="0" outline="0" showAll="0">
@@ -15298,7 +15298,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5BF7FA45-DBCC-483B-8B11-4D6B241BC22E}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5BF7FA45-DBCC-483B-8B11-4D6B241BC22E}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D80" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -15703,7 +15703,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:C182" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
   <pivotFields count="9">
     <pivotField compact="0" outline="0" showAll="0">
@@ -16482,7 +16482,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5B0AFF42-629B-49C3-B037-FF0B515DFF73}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5B0AFF42-629B-49C3-B037-FF0B515DFF73}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
   <location ref="A3:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
@@ -16901,8 +16901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I1254"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49534,7 +49534,7 @@
   <dimension ref="A3:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H7:N8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -49650,7 +49650,7 @@
   <dimension ref="A3:D80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:D78"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52708,7 +52708,7 @@
   <dimension ref="A3:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="D10" sqref="D10:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/combineClean.xlsx
+++ b/combineClean.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\landfireFSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6F13AC-C476-44BF-96DF-FACDBB158C01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55CA6368-E33D-4E84-90AC-B0C34F135CFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="885" windowWidth="24240" windowHeight="13140" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7990" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7527" uniqueCount="138">
   <si>
     <t>COUNT</t>
   </si>
@@ -452,78 +452,6 @@
   <si>
     <t>ACRES</t>
   </si>
-  <si>
-    <t>Grand Total</t>
-  </si>
-  <si>
-    <t>Sum of ACRES</t>
-  </si>
-  <si>
-    <t>Laurentian-Acadian Northern Hardwoods Forest - Hemlock Total</t>
-  </si>
-  <si>
-    <t>Boreal Acidic Peatland Systems Total</t>
-  </si>
-  <si>
-    <t>Laurentian-Acadian Pine-Hemlock-Hardwood Forest Total</t>
-  </si>
-  <si>
-    <t>Laurentian-Acadian Alkaline Conifer-Hardwood Swamp Total</t>
-  </si>
-  <si>
-    <t>Boreal White Spruce-Fir-Hardwood Forest - Inland Total</t>
-  </si>
-  <si>
-    <t>Boreal White Spruce-Fir-Hardwood Forest - Coastal Total</t>
-  </si>
-  <si>
-    <t>Boreal Jack Pine-Black Spruce Forest - Pine Barrens Total</t>
-  </si>
-  <si>
-    <t>Laurentian Pine-Oak Barrens - Jack Pine Total</t>
-  </si>
-  <si>
-    <t>Great Lakes Coastal Marsh Systems Total</t>
-  </si>
-  <si>
-    <t>Boreal Jack Pine-Black Spruce Forest - Spruce-Fir Total</t>
-  </si>
-  <si>
-    <t>Laurentian-Acadian Northern Hardwoods Forest - Northern Sugar Maple-Basswood Total</t>
-  </si>
-  <si>
-    <t>Laurentian-Acadian Northern Pine(-Oak) Forest Total</t>
-  </si>
-  <si>
-    <t>Laurentian-Acadian Floodplain Systems Total</t>
-  </si>
-  <si>
-    <t>Eastern Boreal Floodplain Total</t>
-  </si>
-  <si>
-    <t>Laurentian Pine-Oak Barrens Total</t>
-  </si>
-  <si>
-    <t>Laurentian-Acadian Shrub-Herbaceous Wetland Systems Total</t>
-  </si>
-  <si>
-    <t>Row Labels</t>
-  </si>
-  <si>
-    <t>(blank)</t>
-  </si>
-  <si>
-    <t>Sum of ACRES2</t>
-  </si>
-  <si>
-    <t>Sum of ACRES3</t>
-  </si>
-  <si>
-    <t>Historical</t>
-  </si>
-  <si>
-    <t>Current</t>
-  </si>
 </sst>
 </file>
 
@@ -846,7 +774,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -961,6 +889,117 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1006,18 +1045,28 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1063,7 +1112,25 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="11">
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
@@ -15045,7 +15112,7 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E79E2230-3BCC-4834-A835-D0880F2CA1E1}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="2">
-  <location ref="A3:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="A3:C20" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="9">
     <pivotField compact="0" outline="0" showAll="0">
       <extLst>
@@ -15054,14 +15121,14 @@
         </ext>
       </extLst>
     </pivotField>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0">
+    <pivotField compact="0" outline="0" showAll="0">
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
           <x14:pivotField fillDownLabels="1"/>
         </ext>
       </extLst>
     </pivotField>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" measureFilter="1" sortType="descending">
+    <pivotField compact="0" outline="0" showAll="0">
       <items count="20">
         <item x="11"/>
         <item x="5"/>
@@ -15084,15 +15151,6 @@
         <item x="18"/>
         <item t="default"/>
       </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
           <x14:pivotField fillDownLabels="1"/>
@@ -15221,71 +15279,7 @@
       </extLst>
     </pivotField>
   </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="11">
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of ACRES" fld="1" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="1" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <filters count="1">
-    <filter fld="2" type="count" evalOrder="-1" id="2" iMeasureFld="0">
-      <autoFilter ref="A1">
-        <filterColumn colId="0">
-          <top10 val="10" filterVal="10"/>
-        </filterColumn>
-      </autoFilter>
-    </filter>
-  </filters>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
@@ -15299,14 +15293,14 @@
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5BF7FA45-DBCC-483B-8B11-4D6B241BC22E}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:D80" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <location ref="A3:C20" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="9">
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0" sortType="descending">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
       <items count="77">
         <item x="20"/>
         <item x="7"/>
@@ -15386,308 +15380,20 @@
         <item x="75"/>
         <item t="default"/>
       </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
   </pivotFields>
-  <rowFields count="1">
-    <field x="5"/>
-  </rowFields>
-  <rowItems count="77">
-    <i>
-      <x v="43"/>
-    </i>
-    <i>
-      <x v="48"/>
-    </i>
-    <i>
-      <x v="37"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="53"/>
-    </i>
-    <i>
-      <x v="47"/>
-    </i>
-    <i>
-      <x v="64"/>
-    </i>
-    <i>
-      <x v="32"/>
-    </i>
-    <i>
-      <x v="50"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="74"/>
-    </i>
-    <i>
-      <x v="72"/>
-    </i>
-    <i>
-      <x v="46"/>
-    </i>
-    <i>
-      <x v="59"/>
-    </i>
-    <i>
-      <x v="45"/>
-    </i>
-    <i>
-      <x v="56"/>
-    </i>
-    <i>
-      <x v="65"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="54"/>
-    </i>
-    <i>
-      <x v="73"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="41"/>
-    </i>
-    <i>
-      <x v="49"/>
-    </i>
-    <i>
-      <x v="31"/>
-    </i>
-    <i>
-      <x v="42"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="44"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="60"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="39"/>
-    </i>
-    <i>
-      <x v="34"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="58"/>
-    </i>
-    <i>
-      <x v="33"/>
-    </i>
-    <i>
-      <x v="38"/>
-    </i>
-    <i>
-      <x v="66"/>
-    </i>
-    <i>
-      <x v="35"/>
-    </i>
-    <i>
-      <x v="51"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="62"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="36"/>
-    </i>
-    <i>
-      <x v="52"/>
-    </i>
-    <i>
-      <x v="40"/>
-    </i>
-    <i>
-      <x v="69"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="63"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i>
-      <x v="61"/>
-    </i>
-    <i>
-      <x v="71"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="57"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="70"/>
-    </i>
-    <i>
-      <x v="67"/>
-    </i>
-    <i>
-      <x v="68"/>
-    </i>
-    <i>
-      <x v="55"/>
-    </i>
-    <i>
-      <x v="75"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-  </colItems>
-  <dataFields count="3">
-    <dataField name="Sum of ACRES" fld="1" baseField="0" baseItem="0" numFmtId="3"/>
-    <dataField name="Sum of ACRES2" fld="1" showDataAs="percentOfTotal" baseField="5" baseItem="64" numFmtId="10"/>
-    <dataField name="Sum of ACRES3" fld="1" baseField="5" baseItem="43" numFmtId="10">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{E15A36E0-9728-4e99-A89B-3F7291B0FE68}">
-          <x14:dataField pivotShowAs="percentOfRunningTotal"/>
-        </ext>
-      </extLst>
-    </dataField>
-  </dataFields>
-  <formats count="5">
-    <format dxfId="4">
+  <formats count="3">
+    <format dxfId="10">
       <pivotArea dataOnly="0" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="9">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="2">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="1">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="0">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
     </format>
   </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
@@ -15704,7 +15410,7 @@
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A3:C182" firstHeaderRow="1" firstDataRow="1" firstDataCol="2"/>
+  <location ref="A3:C20" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="9">
     <pivotField compact="0" outline="0" showAll="0">
       <extLst>
@@ -15713,14 +15419,14 @@
         </ext>
       </extLst>
     </pivotField>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0">
+    <pivotField compact="0" outline="0" showAll="0">
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
           <x14:pivotField fillDownLabels="1"/>
         </ext>
       </extLst>
     </pivotField>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" sortType="descending">
+    <pivotField compact="0" outline="0" showAll="0">
       <items count="20">
         <item h="1" x="11"/>
         <item x="5"/>
@@ -15743,15 +15449,6 @@
         <item h="1" x="18"/>
         <item t="default"/>
       </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
           <x14:pivotField fillDownLabels="1"/>
@@ -15772,7 +15469,7 @@
         </ext>
       </extLst>
     </pivotField>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" measureFilter="1" sortType="descending">
+    <pivotField compact="0" outline="0" showAll="0">
       <items count="77">
         <item x="20"/>
         <item x="7"/>
@@ -15852,15 +15549,6 @@
         <item x="75"/>
         <item t="default"/>
       </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
           <x14:pivotField fillDownLabels="1"/>
@@ -15889,587 +15577,7 @@
       </extLst>
     </pivotField>
   </pivotFields>
-  <rowFields count="2">
-    <field x="2"/>
-    <field x="5"/>
-  </rowFields>
-  <rowItems count="179">
-    <i>
-      <x v="12"/>
-      <x v="43"/>
-    </i>
-    <i r="1">
-      <x v="48"/>
-    </i>
-    <i r="1">
-      <x v="53"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="50"/>
-    </i>
-    <i r="1">
-      <x v="47"/>
-    </i>
-    <i r="1">
-      <x v="72"/>
-    </i>
-    <i r="1">
-      <x v="74"/>
-    </i>
-    <i r="1">
-      <x v="32"/>
-    </i>
-    <i r="1">
-      <x v="46"/>
-    </i>
-    <i t="default">
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="1"/>
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="37"/>
-    </i>
-    <i r="1">
-      <x v="43"/>
-    </i>
-    <i r="1">
-      <x v="53"/>
-    </i>
-    <i r="1">
-      <x v="47"/>
-    </i>
-    <i r="1">
-      <x v="32"/>
-    </i>
-    <i r="1">
-      <x v="54"/>
-    </i>
-    <i r="1">
-      <x v="41"/>
-    </i>
-    <i r="1">
-      <x v="49"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i t="default">
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="15"/>
-      <x v="43"/>
-    </i>
-    <i r="1">
-      <x v="48"/>
-    </i>
-    <i r="1">
-      <x v="47"/>
-    </i>
-    <i r="1">
-      <x v="53"/>
-    </i>
-    <i r="1">
-      <x v="46"/>
-    </i>
-    <i r="1">
-      <x v="50"/>
-    </i>
-    <i r="1">
-      <x v="32"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="31"/>
-    </i>
-    <i r="1">
-      <x v="45"/>
-    </i>
-    <i t="default">
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="10"/>
-      <x v="37"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="43"/>
-    </i>
-    <i r="1">
-      <x v="47"/>
-    </i>
-    <i r="1">
-      <x v="53"/>
-    </i>
-    <i r="1">
-      <x v="32"/>
-    </i>
-    <i r="1">
-      <x v="50"/>
-    </i>
-    <i r="1">
-      <x v="48"/>
-    </i>
-    <i r="1">
-      <x v="45"/>
-    </i>
-    <i r="1">
-      <x v="49"/>
-    </i>
-    <i t="default">
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="5"/>
-      <x v="43"/>
-    </i>
-    <i r="1">
-      <x v="53"/>
-    </i>
-    <i r="1">
-      <x v="48"/>
-    </i>
-    <i r="1">
-      <x v="47"/>
-    </i>
-    <i r="1">
-      <x v="32"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="37"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="46"/>
-    </i>
-    <i r="1">
-      <x v="50"/>
-    </i>
-    <i t="default">
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="4"/>
-      <x v="43"/>
-    </i>
-    <i r="1">
-      <x v="50"/>
-    </i>
-    <i r="1">
-      <x v="53"/>
-    </i>
-    <i r="1">
-      <x v="48"/>
-    </i>
-    <i r="1">
-      <x v="32"/>
-    </i>
-    <i r="1">
-      <x v="47"/>
-    </i>
-    <i r="1">
-      <x v="74"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="46"/>
-    </i>
-    <i t="default">
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="2"/>
-      <x v="32"/>
-    </i>
-    <i r="1">
-      <x v="50"/>
-    </i>
-    <i r="1">
-      <x v="56"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="43"/>
-    </i>
-    <i r="1">
-      <x v="53"/>
-    </i>
-    <i r="1">
-      <x v="47"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="48"/>
-    </i>
-    <i r="1">
-      <x v="34"/>
-    </i>
-    <i t="default">
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="7"/>
-      <x v="65"/>
-    </i>
-    <i r="1">
-      <x v="59"/>
-    </i>
-    <i r="1">
-      <x v="47"/>
-    </i>
-    <i r="1">
-      <x v="32"/>
-    </i>
-    <i r="1">
-      <x v="43"/>
-    </i>
-    <i r="1">
-      <x v="60"/>
-    </i>
-    <i r="1">
-      <x v="41"/>
-    </i>
-    <i r="1">
-      <x v="53"/>
-    </i>
-    <i r="1">
-      <x v="50"/>
-    </i>
-    <i r="1">
-      <x v="5"/>
-    </i>
-    <i t="default">
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="9"/>
-      <x v="32"/>
-    </i>
-    <i r="1">
-      <x v="56"/>
-    </i>
-    <i r="1">
-      <x v="53"/>
-    </i>
-    <i r="1">
-      <x v="43"/>
-    </i>
-    <i r="1">
-      <x v="47"/>
-    </i>
-    <i r="1">
-      <x v="50"/>
-    </i>
-    <i r="1">
-      <x v="48"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="65"/>
-    </i>
-    <i r="1">
-      <x v="59"/>
-    </i>
-    <i t="default">
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="3"/>
-      <x v="43"/>
-    </i>
-    <i r="1">
-      <x v="32"/>
-    </i>
-    <i r="1">
-      <x v="53"/>
-    </i>
-    <i r="1">
-      <x v="47"/>
-    </i>
-    <i r="1">
-      <x v="48"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="59"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="50"/>
-    </i>
-    <i r="1">
-      <x v="37"/>
-    </i>
-    <i t="default">
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="13"/>
-      <x v="43"/>
-    </i>
-    <i r="1">
-      <x v="48"/>
-    </i>
-    <i r="1">
-      <x v="72"/>
-    </i>
-    <i r="1">
-      <x v="18"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="20"/>
-    </i>
-    <i r="1">
-      <x v="58"/>
-    </i>
-    <i r="1">
-      <x v="50"/>
-    </i>
-    <i r="1">
-      <x v="59"/>
-    </i>
-    <i r="1">
-      <x v="53"/>
-    </i>
-    <i t="default">
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-      <x v="43"/>
-    </i>
-    <i r="1">
-      <x v="48"/>
-    </i>
-    <i r="1">
-      <x v="32"/>
-    </i>
-    <i r="1">
-      <x v="47"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="50"/>
-    </i>
-    <i r="1">
-      <x v="53"/>
-    </i>
-    <i r="1">
-      <x v="72"/>
-    </i>
-    <i r="1">
-      <x v="46"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i t="default">
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="11"/>
-      <x v="37"/>
-    </i>
-    <i r="1">
-      <x v="43"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="47"/>
-    </i>
-    <i r="1">
-      <x v="53"/>
-    </i>
-    <i r="1">
-      <x v="41"/>
-    </i>
-    <i r="1">
-      <x v="50"/>
-    </i>
-    <i r="1">
-      <x v="39"/>
-    </i>
-    <i r="1">
-      <x v="45"/>
-    </i>
-    <i r="1">
-      <x v="49"/>
-    </i>
-    <i r="1">
-      <x v="48"/>
-    </i>
-    <i t="default">
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="6"/>
-      <x v="37"/>
-    </i>
-    <i r="1">
-      <x v="43"/>
-    </i>
-    <i r="1">
-      <x v="47"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="39"/>
-    </i>
-    <i r="1">
-      <x v="53"/>
-    </i>
-    <i r="1">
-      <x v="32"/>
-    </i>
-    <i r="1">
-      <x v="41"/>
-    </i>
-    <i r="1">
-      <x v="50"/>
-    </i>
-    <i r="1">
-      <x v="45"/>
-    </i>
-    <i t="default">
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="8"/>
-      <x v="43"/>
-    </i>
-    <i r="1">
-      <x v="53"/>
-    </i>
-    <i r="1">
-      <x v="48"/>
-    </i>
-    <i r="1">
-      <x v="50"/>
-    </i>
-    <i r="1">
-      <x v="46"/>
-    </i>
-    <i r="1">
-      <x v="72"/>
-    </i>
-    <i r="1">
-      <x v="32"/>
-    </i>
-    <i r="1">
-      <x v="47"/>
-    </i>
-    <i r="1">
-      <x v="45"/>
-    </i>
-    <i r="1">
-      <x v="56"/>
-    </i>
-    <i t="default">
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="16"/>
-      <x v="53"/>
-    </i>
-    <i r="1">
-      <x v="37"/>
-    </i>
-    <i r="1">
-      <x v="43"/>
-    </i>
-    <i r="1">
-      <x v="50"/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="47"/>
-    </i>
-    <i r="1">
-      <x v="59"/>
-    </i>
-    <i r="1">
-      <x v="56"/>
-    </i>
-    <i r="1">
-      <x v="60"/>
-    </i>
-    <i r="1">
-      <x v="32"/>
-    </i>
-    <i r="1">
-      <x v="48"/>
-    </i>
-    <i t="default">
-      <x v="16"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of ACRES" fld="1" baseField="5" baseItem="1" numFmtId="10">
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{E15A36E0-9728-4e99-A89B-3F7291B0FE68}">
-          <x14:dataField pivotShowAs="percentOfParentRow"/>
-        </ext>
-      </extLst>
-    </dataField>
-  </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <filters count="1">
-    <filter fld="5" type="count" evalOrder="-1" id="1" iMeasureFld="0">
-      <autoFilter ref="A1">
-        <filterColumn colId="0">
-          <top10 val="10" filterVal="10"/>
-        </filterColumn>
-      </autoFilter>
-    </filter>
-  </filters>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
@@ -16483,11 +15591,11 @@
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5B0AFF42-629B-49C3-B037-FF0B515DFF73}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="A3:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <location ref="A3:C20" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="9">
     <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
       <items count="20">
         <item h="1" x="11"/>
         <item h="1" x="5"/>
@@ -16515,7 +15623,7 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
+    <pivotField showAll="0">
       <items count="13">
         <item x="8"/>
         <item x="9"/>
@@ -16534,62 +15642,6 @@
     </pivotField>
     <pivotField showAll="0"/>
   </pivotFields>
-  <rowFields count="2">
-    <field x="2"/>
-    <field x="7"/>
-  </rowFields>
-  <rowItems count="11">
-    <i>
-      <x v="12"/>
-    </i>
-    <i r="1">
-      <x/>
-    </i>
-    <i r="1">
-      <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="2"/>
-    </i>
-    <i r="1">
-      <x v="3"/>
-    </i>
-    <i r="1">
-      <x v="4"/>
-    </i>
-    <i r="1">
-      <x v="6"/>
-    </i>
-    <i r="1">
-      <x v="7"/>
-    </i>
-    <i r="1">
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="9"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of ACRES" fld="1" showDataAs="percentOfTotal" baseField="7" baseItem="6" numFmtId="10"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -16901,7 +15953,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I1254"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -49531,114 +48583,108 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0893053-249A-419B-918B-7F033D9D0433}">
-  <dimension ref="A3:B14"/>
+  <dimension ref="A3:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="3">
-        <v>361509.01800000033</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="3">
-        <v>85712.42399999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="3">
-        <v>82992.702000000019</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="3">
-        <v>56369.796000000031</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="3">
-        <v>51340.608000000051</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>124</v>
-      </c>
-      <c r="B9" s="3">
-        <v>41897.838000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="3">
-        <v>34544.088000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="3">
-        <v>15856.349999999995</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>126</v>
-      </c>
-      <c r="B12" s="3">
-        <v>8221.3259999999973</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>94</v>
-      </c>
-      <c r="B13" s="3">
-        <v>7503.8219999999992</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>138</v>
-      </c>
-      <c r="B14" s="3">
-        <v>745947.97200000042</v>
-      </c>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -49647,1105 +48693,288 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C053C8C7-6436-481A-B955-2A875A7553D6}">
-  <dimension ref="A3:D80"/>
+  <dimension ref="A3:C80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="71.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C3" t="s">
-        <v>158</v>
-      </c>
-      <c r="D3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="5">
-        <v>332433.67800000013</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.43959856752038318</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.43959856752038318</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="5">
-        <v>57272.67000000002</v>
-      </c>
-      <c r="C5" s="2">
-        <v>7.5735358227055516E-2</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.51533392574743875</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="5">
-        <v>52118.27399999999</v>
-      </c>
-      <c r="C6" s="2">
-        <v>6.891936680384958E-2</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.58425329255128833</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="5">
-        <v>44560.061999999991</v>
-      </c>
-      <c r="C7" s="2">
-        <v>5.8924653908920294E-2</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.64317794646020854</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="5">
-        <v>36791.394000000008</v>
-      </c>
-      <c r="C8" s="2">
-        <v>4.8651641424482923E-2</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.69182958788469151</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="5">
-        <v>35819.921999999999</v>
-      </c>
-      <c r="C9" s="2">
-        <v>4.736700112523453E-2</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0.73919658900992602</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="5">
-        <v>34544.088000000003</v>
-      </c>
-      <c r="C10" s="2">
-        <v>4.5679883255083605E-2</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.78487647226500956</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="5">
-        <v>23620.134000000005</v>
-      </c>
-      <c r="C11" s="2">
-        <v>3.1234431882799483E-2</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0.81611090414780896</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B12" s="5">
-        <v>22460.406000000006</v>
-      </c>
-      <c r="C12" s="2">
-        <v>2.9700848490826548E-2</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0.84581175263863551</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="5">
-        <v>15384.155999999999</v>
-      </c>
-      <c r="C13" s="2">
-        <v>2.0343465141068245E-2</v>
-      </c>
-      <c r="D13" s="2">
-        <v>0.86615521777970372</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" s="5">
-        <v>10047.941999999997</v>
-      </c>
-      <c r="C14" s="2">
-        <v>1.3287044009205022E-2</v>
-      </c>
-      <c r="D14" s="2">
-        <v>0.87944226178890872</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B15" s="5">
-        <v>9957.1439999999966</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1.3166975937360279E-2</v>
-      </c>
-      <c r="D15" s="2">
-        <v>0.89260923772626899</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B16" s="5">
-        <v>9146.3999999999978</v>
-      </c>
-      <c r="C16" s="2">
-        <v>1.2094876674824836E-2</v>
-      </c>
-      <c r="D16" s="2">
-        <v>0.90470411440109388</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="5">
-        <v>8561.6519999999982</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1.1321626549545986E-2</v>
-      </c>
-      <c r="D17" s="2">
-        <v>0.91602574095063982</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="5">
-        <v>6031.7399999999989</v>
-      </c>
-      <c r="C18" s="2">
-        <v>7.9761601760920103E-3</v>
-      </c>
-      <c r="D18" s="2">
-        <v>0.92400190112673186</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B19" s="5">
-        <v>5757.1259999999993</v>
-      </c>
-      <c r="C19" s="2">
-        <v>7.6130203108794297E-3</v>
-      </c>
-      <c r="D19" s="2">
-        <v>0.93161492143761138</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B20" s="5">
-        <v>5171.0460000000003</v>
-      </c>
-      <c r="C20" s="2">
-        <v>6.8380087957935678E-3</v>
-      </c>
-      <c r="D20" s="2">
-        <v>0.93845293023340492</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B21" s="5">
-        <v>4029.5220000000004</v>
-      </c>
-      <c r="C21" s="2">
-        <v>5.3284977311831476E-3</v>
-      </c>
-      <c r="D21" s="2">
-        <v>0.94378142796458808</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="B22" s="5">
-        <v>3537.57</v>
-      </c>
-      <c r="C22" s="2">
-        <v>4.677957762459559E-3</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0.94845938572704758</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B23" s="5">
-        <v>3183.48</v>
-      </c>
-      <c r="C23" s="2">
-        <v>4.2097216387618494E-3</v>
-      </c>
-      <c r="D23" s="2">
-        <v>0.95266910736580934</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B24" s="5">
-        <v>3083.8019999999997</v>
-      </c>
-      <c r="C24" s="2">
-        <v>4.0779109682036853E-3</v>
-      </c>
-      <c r="D24" s="2">
-        <v>0.9567470183340131</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B25" s="5">
-        <v>2433.7860000000001</v>
-      </c>
-      <c r="C25" s="2">
-        <v>3.2183527423811824E-3</v>
-      </c>
-      <c r="D25" s="2">
-        <v>0.95996537107639424</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B26" s="5">
-        <v>2309.0219999999999</v>
-      </c>
-      <c r="C26" s="2">
-        <v>3.0533692304576007E-3</v>
-      </c>
-      <c r="D26" s="2">
-        <v>0.96301874030685175</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="B27" s="5">
-        <v>2289.4860000000008</v>
-      </c>
-      <c r="C27" s="2">
-        <v>3.0275355132880731E-3</v>
-      </c>
-      <c r="D27" s="2">
-        <v>0.96604627582013991</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B28" s="5">
-        <v>2163.3900000000003</v>
-      </c>
-      <c r="C28" s="2">
-        <v>2.8607906115574776E-3</v>
-      </c>
-      <c r="D28" s="2">
-        <v>0.96890706643169744</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" s="5">
-        <v>2147.1840000000002</v>
-      </c>
-      <c r="C29" s="2">
-        <v>2.8393603689054821E-3</v>
-      </c>
-      <c r="D29" s="2">
-        <v>0.97174642680060286</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B30" s="5">
-        <v>1960.2599999999998</v>
-      </c>
-      <c r="C30" s="2">
-        <v>2.5921786659879446E-3</v>
-      </c>
-      <c r="D30" s="2">
-        <v>0.9743386054665909</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="5">
-        <v>1940.7239999999995</v>
-      </c>
-      <c r="C31" s="2">
-        <v>2.5663449488184152E-3</v>
-      </c>
-      <c r="D31" s="2">
-        <v>0.97690495041540937</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="B32" s="5">
-        <v>1555.998</v>
-      </c>
-      <c r="C32" s="2">
-        <v>2.0575968595594003E-3</v>
-      </c>
-      <c r="D32" s="2">
-        <v>0.97896254727496879</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B33" s="5">
-        <v>1516.038</v>
-      </c>
-      <c r="C33" s="2">
-        <v>2.0047551653490005E-3</v>
-      </c>
-      <c r="D33" s="2">
-        <v>0.98096730244031771</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B34" s="5">
-        <v>1435.008</v>
-      </c>
-      <c r="C34" s="2">
-        <v>1.8976039520890234E-3</v>
-      </c>
-      <c r="D34" s="2">
-        <v>0.98286490639240676</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B35" s="5">
-        <v>1414.5840000000001</v>
-      </c>
-      <c r="C35" s="2">
-        <v>1.8705959750481523E-3</v>
-      </c>
-      <c r="D35" s="2">
-        <v>0.984735502367455</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B36" s="5">
-        <v>1355.7539999999999</v>
-      </c>
-      <c r="C36" s="2">
-        <v>1.7928012585717303E-3</v>
-      </c>
-      <c r="D36" s="2">
-        <v>0.98652830362602661</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B37" s="5">
-        <v>1303.1400000000001</v>
-      </c>
-      <c r="C37" s="2">
-        <v>1.7232263611947041E-3</v>
-      </c>
-      <c r="D37" s="2">
-        <v>0.98825152998722132</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B38" s="5">
-        <v>1223.664</v>
-      </c>
-      <c r="C38" s="2">
-        <v>1.6181301027095756E-3</v>
-      </c>
-      <c r="D38" s="2">
-        <v>0.98986966008993094</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B39" s="5">
-        <v>1123.9859999999996</v>
-      </c>
-      <c r="C39" s="2">
-        <v>1.4863194321514113E-3</v>
-      </c>
-      <c r="D39" s="2">
-        <v>0.99135597952208232</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B40" s="5">
-        <v>1101.1199999999997</v>
-      </c>
-      <c r="C40" s="2">
-        <v>1.4560822404643492E-3</v>
-      </c>
-      <c r="D40" s="2">
-        <v>0.99281206176254666</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B41" s="5">
-        <v>1097.5679999999998</v>
-      </c>
-      <c r="C41" s="2">
-        <v>1.4513852009789803E-3</v>
-      </c>
-      <c r="D41" s="2">
-        <v>0.99426344696352564</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B42" s="5">
-        <v>1053.6119999999999</v>
-      </c>
-      <c r="C42" s="2">
-        <v>1.3932593373475407E-3</v>
-      </c>
-      <c r="D42" s="2">
-        <v>0.99565670630087311</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B43" s="5">
-        <v>749.47199999999998</v>
-      </c>
-      <c r="C43" s="2">
-        <v>9.9107533141283154E-4</v>
-      </c>
-      <c r="D43" s="2">
-        <v>0.99664778163228596</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B44" s="5">
-        <v>368.96399999999994</v>
-      </c>
-      <c r="C44" s="2">
-        <v>4.8790497654269127E-4</v>
-      </c>
-      <c r="D44" s="2">
-        <v>0.99713568660882868</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B45" s="5">
-        <v>349.87200000000007</v>
-      </c>
-      <c r="C45" s="2">
-        <v>4.6265838930883372E-4</v>
-      </c>
-      <c r="D45" s="2">
-        <v>0.99759834499813749</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B46" s="5">
-        <v>258.85199999999998</v>
-      </c>
-      <c r="C46" s="2">
-        <v>3.4229675249625635E-4</v>
-      </c>
-      <c r="D46" s="2">
-        <v>0.99794064175063368</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="B47" s="5">
-        <v>238.87200000000001</v>
-      </c>
-      <c r="C47" s="2">
-        <v>3.1587590539105647E-4</v>
-      </c>
-      <c r="D47" s="2">
-        <v>0.99825651765602463</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B48" s="5">
-        <v>229.10400000000004</v>
-      </c>
-      <c r="C48" s="2">
-        <v>3.0295904680629213E-4</v>
-      </c>
-      <c r="D48" s="2">
-        <v>0.99855947670283107</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B49" s="5">
-        <v>190.47600000000006</v>
-      </c>
-      <c r="C49" s="2">
-        <v>2.5187874240290573E-4</v>
-      </c>
-      <c r="D49" s="2">
-        <v>0.99881135544523392</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B50" s="5">
-        <v>152.51400000000001</v>
-      </c>
-      <c r="C50" s="2">
-        <v>2.0167913290302584E-4</v>
-      </c>
-      <c r="D50" s="2">
-        <v>0.99901303457813695</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B51" s="5">
-        <v>93.461999999999989</v>
-      </c>
-      <c r="C51" s="2">
-        <v>1.2359085145876837E-4</v>
-      </c>
-      <c r="D51" s="2">
-        <v>0.9991366254295958</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B52" s="5">
-        <v>79.476000000000028</v>
-      </c>
-      <c r="C52" s="2">
-        <v>1.050962584851285E-4</v>
-      </c>
-      <c r="D52" s="2">
-        <v>0.9992417216880809</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="B53" s="5">
-        <v>79.254000000000005</v>
-      </c>
-      <c r="C53" s="2">
-        <v>1.0480269351729291E-4</v>
-      </c>
-      <c r="D53" s="2">
-        <v>0.99934652438159821</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B54" s="5">
-        <v>69.708000000000013</v>
-      </c>
-      <c r="C54" s="2">
-        <v>9.2179399900364084E-5</v>
-      </c>
-      <c r="D54" s="2">
-        <v>0.99943870378149857</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B55" s="5">
-        <v>62.382000000000019</v>
-      </c>
-      <c r="C55" s="2">
-        <v>8.2491755961790799E-5</v>
-      </c>
-      <c r="D55" s="2">
-        <v>0.99952119553746033</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B56" s="5">
-        <v>54.834000000000003</v>
-      </c>
-      <c r="C56" s="2">
-        <v>7.2510547055381933E-5</v>
-      </c>
-      <c r="D56" s="2">
-        <v>0.9995937060845157</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B57" s="5">
-        <v>43.068000000000005</v>
-      </c>
-      <c r="C57" s="2">
-        <v>5.6951603760097552E-5</v>
-      </c>
-      <c r="D57" s="2">
-        <v>0.99965065768827577</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B58" s="5">
-        <v>40.625999999999998</v>
-      </c>
-      <c r="C58" s="2">
-        <v>5.3722389113906445E-5</v>
-      </c>
-      <c r="D58" s="2">
-        <v>0.99970438007738971</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B59" s="5">
-        <v>34.854000000000006</v>
-      </c>
-      <c r="C59" s="2">
-        <v>4.6089699950182042E-5</v>
-      </c>
-      <c r="D59" s="2">
-        <v>0.99975046977733995</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B60" s="5">
-        <v>29.082000000000001</v>
-      </c>
-      <c r="C60" s="2">
-        <v>3.8457010786457618E-5</v>
-      </c>
-      <c r="D60" s="2">
-        <v>0.99978892678812648</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B61" s="5">
-        <v>21.312000000000001</v>
-      </c>
-      <c r="C61" s="2">
-        <v>2.8182236912213218E-5</v>
-      </c>
-      <c r="D61" s="2">
-        <v>0.99981710902503873</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B62" s="5">
-        <v>21.312000000000001</v>
-      </c>
-      <c r="C62" s="2">
-        <v>2.8182236912213218E-5</v>
-      </c>
-      <c r="D62" s="2">
-        <v>0.99984529126195099</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="B63" s="5">
-        <v>18.204000000000001</v>
-      </c>
-      <c r="C63" s="2">
-        <v>2.4072327362515458E-5</v>
-      </c>
-      <c r="D63" s="2">
-        <v>0.99986936358931355</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B64" s="5">
-        <v>16.650000000000002</v>
-      </c>
-      <c r="C64" s="2">
-        <v>2.201737258766658E-5</v>
-      </c>
-      <c r="D64" s="2">
-        <v>0.99989138096190133</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B65" s="5">
-        <v>15.984</v>
-      </c>
-      <c r="C65" s="2">
-        <v>2.1136677684159913E-5</v>
-      </c>
-      <c r="D65" s="2">
-        <v>0.99991251763958555</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B66" s="5">
-        <v>12.21</v>
-      </c>
-      <c r="C66" s="2">
-        <v>1.614607323095549E-5</v>
-      </c>
-      <c r="D66" s="2">
-        <v>0.99992866371281641</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B67" s="5">
-        <v>11.988</v>
-      </c>
-      <c r="C67" s="2">
-        <v>1.5852508263119933E-5</v>
-      </c>
-      <c r="D67" s="2">
-        <v>0.9999445162210796</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="B68" s="5">
-        <v>10.212000000000002</v>
-      </c>
-      <c r="C68" s="2">
-        <v>1.3503988520435502E-5</v>
-      </c>
-      <c r="D68" s="2">
-        <v>0.99995802020960012</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B69" s="5">
-        <v>7.3260000000000005</v>
-      </c>
-      <c r="C69" s="2">
-        <v>9.6876439385732949E-6</v>
-      </c>
-      <c r="D69" s="2">
-        <v>0.99996770785353861</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B70" s="5">
-        <v>6.2160000000000002</v>
-      </c>
-      <c r="C70" s="2">
-        <v>8.2198190993955224E-6</v>
-      </c>
-      <c r="D70" s="2">
-        <v>0.9999759276726381</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B71" s="5">
-        <v>5.5500000000000007</v>
-      </c>
-      <c r="C71" s="2">
-        <v>7.3391241958888598E-6</v>
-      </c>
-      <c r="D71" s="2">
-        <v>0.99998326679683402</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B72" s="5">
-        <v>3.9960000000000004</v>
-      </c>
-      <c r="C72" s="2">
-        <v>5.2841694210399792E-6</v>
-      </c>
-      <c r="D72" s="2">
-        <v>0.99998855096625516</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B73" s="5">
-        <v>3.1080000000000001</v>
-      </c>
-      <c r="C73" s="2">
-        <v>4.1099095496977612E-6</v>
-      </c>
-      <c r="D73" s="2">
-        <v>0.99999266087580485</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="B74" s="5">
-        <v>2.8860000000000001</v>
-      </c>
-      <c r="C74" s="2">
-        <v>3.8163445818622067E-6</v>
-      </c>
-      <c r="D74" s="2">
-        <v>0.99999647722038676</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="B75" s="5">
-        <v>1.776</v>
-      </c>
-      <c r="C75" s="2">
-        <v>2.3485197426844347E-6</v>
-      </c>
-      <c r="D75" s="2">
-        <v>0.99999882574012933</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B76" s="5">
-        <v>0.44400000000000001</v>
-      </c>
-      <c r="C76" s="2">
-        <v>5.8712993567110867E-7</v>
-      </c>
-      <c r="D76" s="2">
-        <v>0.99999941287006511</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="B77" s="5">
-        <v>0.222</v>
-      </c>
-      <c r="C77" s="2">
-        <v>2.9356496783555434E-7</v>
-      </c>
-      <c r="D77" s="2">
-        <v>0.99999970643503289</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B78" s="5">
-        <v>0.222</v>
-      </c>
-      <c r="C78" s="2">
-        <v>2.9356496783555434E-7</v>
-      </c>
-      <c r="D78" s="2">
-        <v>1.0000000000000007</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C79" s="2">
-        <v>0</v>
-      </c>
-      <c r="D79" s="2">
-        <v>1.0000000000000007</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B80" s="5">
-        <v>756221.02199999988</v>
-      </c>
-      <c r="C80" s="2">
-        <v>1</v>
-      </c>
-      <c r="D80" s="2"/>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="15"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="15"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="13"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="15"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="15"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="15"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="15"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="15"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="16"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="18"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B22"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B23"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B24"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B27"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B28"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B29"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B30"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B31"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B32"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44"/>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45"/>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46"/>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47"/>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55"/>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56"/>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57"/>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58"/>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59"/>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60"/>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61"/>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62"/>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B63"/>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B64"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66"/>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67"/>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68"/>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69"/>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70"/>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71"/>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72"/>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73"/>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74"/>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75"/>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B76"/>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77"/>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B78"/>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B79"/>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B80"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -50755,1948 +48984,108 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:C182"/>
+  <dimension ref="A3:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="78" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="71.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>139</v>
-      </c>
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.77832564593924924</v>
-      </c>
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="2">
-        <v>6.5865082035812733E-2</v>
-      </c>
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="2">
-        <v>2.7461695686663311E-2</v>
-      </c>
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="2">
-        <v>2.7305865592513721E-2</v>
-      </c>
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="2">
-        <v>2.6332599185519098E-2</v>
-      </c>
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="2">
-        <v>1.8668042270256407E-2</v>
-      </c>
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1.7290423636201219E-2</v>
-      </c>
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1.4607727963643232E-2</v>
-      </c>
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="2">
-        <v>1.2856654448781275E-2</v>
-      </c>
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1.1286263241359999E-2</v>
-      </c>
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>140</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0.50667494788786349</v>
-      </c>
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.37044850093284115</v>
-      </c>
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>40</v>
-      </c>
-      <c r="B16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0.30739808214672543</v>
-      </c>
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="2">
-        <v>9.9400032890446466E-2</v>
-      </c>
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="9"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="2">
-        <v>6.4927442540957114E-2</v>
-      </c>
+      <c r="A18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="9"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="2">
-        <v>6.199282080944523E-2</v>
-      </c>
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="9"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="2">
-        <v>2.6842573847558452E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="2">
-        <v>2.0261649172351612E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="2">
-        <v>1.7959317920189628E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23" s="2">
-        <v>1.7236295174744672E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="2">
-        <v>1.3533284564740306E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>141</v>
-      </c>
-      <c r="C25" s="2">
-        <v>0.12002756625685979</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" t="s">
-        <v>27</v>
-      </c>
-      <c r="C26" s="2">
-        <v>0.46651568519224529</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" t="s">
-        <v>22</v>
-      </c>
-      <c r="C27" s="2">
-        <v>0.26738800152498882</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" t="s">
-        <v>20</v>
-      </c>
-      <c r="C28" s="2">
-        <v>0.11130995396582431</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="2">
-        <v>3.7495945692191265E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="2">
-        <v>2.9501135206186451E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="2">
-        <v>2.6101206903419275E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" s="2">
-        <v>1.9085120548085515E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="2">
-        <v>1.8965625160038468E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>22</v>
-      </c>
-      <c r="B34" t="s">
-        <v>79</v>
-      </c>
-      <c r="C34" s="2">
-        <v>1.2652285491552815E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>22</v>
-      </c>
-      <c r="B35" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" s="2">
-        <v>1.0985040315467825E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>142</v>
-      </c>
-      <c r="C36" s="2">
-        <v>0.11961645467307623</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>30</v>
-      </c>
-      <c r="B37" t="s">
-        <v>30</v>
-      </c>
-      <c r="C37" s="2">
-        <v>0.42708758344691078</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>30</v>
-      </c>
-      <c r="B38" t="s">
-        <v>28</v>
-      </c>
-      <c r="C38" s="2">
-        <v>0.19039785403626955</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>30</v>
-      </c>
-      <c r="B39" t="s">
-        <v>27</v>
-      </c>
-      <c r="C39" s="2">
-        <v>0.14003021016902067</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>30</v>
-      </c>
-      <c r="B40" t="s">
-        <v>20</v>
-      </c>
-      <c r="C40" s="2">
-        <v>9.7367027510352186E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>30</v>
-      </c>
-      <c r="B41" t="s">
-        <v>21</v>
-      </c>
-      <c r="C41" s="2">
-        <v>6.2720825050133239E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>30</v>
-      </c>
-      <c r="B42" t="s">
-        <v>16</v>
-      </c>
-      <c r="C42" s="2">
-        <v>2.4519719080152429E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>30</v>
-      </c>
-      <c r="B43" t="s">
-        <v>34</v>
-      </c>
-      <c r="C43" s="2">
-        <v>1.7913414877640133E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>30</v>
-      </c>
-      <c r="B44" t="s">
-        <v>22</v>
-      </c>
-      <c r="C44" s="2">
-        <v>1.5625949493458802E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>30</v>
-      </c>
-      <c r="B45" t="s">
-        <v>50</v>
-      </c>
-      <c r="C45" s="2">
-        <v>1.2613613674442022E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>30</v>
-      </c>
-      <c r="B46" t="s">
-        <v>69</v>
-      </c>
-      <c r="C46" s="2">
-        <v>1.1723802661620061E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>143</v>
-      </c>
-      <c r="C47" s="2">
-        <v>7.8405921640362544E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>24</v>
-      </c>
-      <c r="B48" t="s">
-        <v>27</v>
-      </c>
-      <c r="C48" s="2">
-        <v>0.24606967551798639</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>24</v>
-      </c>
-      <c r="B49" t="s">
-        <v>21</v>
-      </c>
-      <c r="C49" s="2">
-        <v>0.1979897846411183</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>24</v>
-      </c>
-      <c r="B50" t="s">
-        <v>22</v>
-      </c>
-      <c r="C50" s="2">
-        <v>0.18912850841821241</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>24</v>
-      </c>
-      <c r="B51" t="s">
-        <v>20</v>
-      </c>
-      <c r="C51" s="2">
-        <v>0.136787239762239</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>24</v>
-      </c>
-      <c r="B52" t="s">
-        <v>16</v>
-      </c>
-      <c r="C52" s="2">
-        <v>7.5818672401604975E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>24</v>
-      </c>
-      <c r="B53" t="s">
-        <v>28</v>
-      </c>
-      <c r="C53" s="2">
-        <v>4.0338719794498032E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>24</v>
-      </c>
-      <c r="B54" t="s">
-        <v>30</v>
-      </c>
-      <c r="C54" s="2">
-        <v>3.5534713302866471E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>24</v>
-      </c>
-      <c r="B55" t="s">
-        <v>38</v>
-      </c>
-      <c r="C55" s="2">
-        <v>2.7679042583908315E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>24</v>
-      </c>
-      <c r="B56" t="s">
-        <v>42</v>
-      </c>
-      <c r="C56" s="2">
-        <v>2.546870177325089E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>24</v>
-      </c>
-      <c r="B57" t="s">
-        <v>34</v>
-      </c>
-      <c r="C57" s="2">
-        <v>2.5184941804315138E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>144</v>
-      </c>
-      <c r="C58" s="2">
-        <v>6.8362275067001405E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>124</v>
-      </c>
-      <c r="B59" t="s">
-        <v>27</v>
-      </c>
-      <c r="C59" s="2">
-        <v>0.22083443392073257</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>124</v>
-      </c>
-      <c r="B60" t="s">
-        <v>34</v>
-      </c>
-      <c r="C60" s="2">
-        <v>0.18657157591537429</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>124</v>
-      </c>
-      <c r="B61" t="s">
-        <v>21</v>
-      </c>
-      <c r="C61" s="2">
-        <v>0.1568808724199087</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>124</v>
-      </c>
-      <c r="B62" t="s">
-        <v>22</v>
-      </c>
-      <c r="C62" s="2">
-        <v>8.9745041067632689E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>124</v>
-      </c>
-      <c r="B63" t="s">
-        <v>16</v>
-      </c>
-      <c r="C63" s="2">
-        <v>8.8757656943763141E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>124</v>
-      </c>
-      <c r="B64" t="s">
-        <v>20</v>
-      </c>
-      <c r="C64" s="2">
-        <v>8.803441379570584E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>124</v>
-      </c>
-      <c r="B65" t="s">
-        <v>71</v>
-      </c>
-      <c r="C65" s="2">
-        <v>4.5363068060324772E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>124</v>
-      </c>
-      <c r="B66" t="s">
-        <v>38</v>
-      </c>
-      <c r="C66" s="2">
-        <v>4.4784473541878929E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>124</v>
-      </c>
-      <c r="B67" t="s">
-        <v>28</v>
-      </c>
-      <c r="C67" s="2">
-        <v>4.4696426549941513E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>124</v>
-      </c>
-      <c r="B68" t="s">
-        <v>42</v>
-      </c>
-      <c r="C68" s="2">
-        <v>3.4332037784737687E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>145</v>
-      </c>
-      <c r="C69" s="2">
-        <v>5.4113583187986605E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>53</v>
-      </c>
-      <c r="B70" t="s">
-        <v>16</v>
-      </c>
-      <c r="C70" s="2">
-        <v>0.39833406081769246</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>53</v>
-      </c>
-      <c r="B71" t="s">
-        <v>34</v>
-      </c>
-      <c r="C71" s="2">
-        <v>0.10353921140695475</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>53</v>
-      </c>
-      <c r="B72" t="s">
-        <v>90</v>
-      </c>
-      <c r="C72" s="2">
-        <v>0.10217517823366797</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>53</v>
-      </c>
-      <c r="B73" t="s">
-        <v>38</v>
-      </c>
-      <c r="C73" s="2">
-        <v>7.9441292012221734E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>53</v>
-      </c>
-      <c r="B74" t="s">
-        <v>27</v>
-      </c>
-      <c r="C74" s="2">
-        <v>6.8801833260584894E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>53</v>
-      </c>
-      <c r="B75" t="s">
-        <v>21</v>
-      </c>
-      <c r="C75" s="2">
-        <v>6.6728502837189008E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>53</v>
-      </c>
-      <c r="B76" t="s">
-        <v>20</v>
-      </c>
-      <c r="C76" s="2">
-        <v>5.4943256219991264E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>53</v>
-      </c>
-      <c r="B77" t="s">
-        <v>28</v>
-      </c>
-      <c r="C77" s="2">
-        <v>4.7304670449585334E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>53</v>
-      </c>
-      <c r="B78" t="s">
-        <v>22</v>
-      </c>
-      <c r="C78" s="2">
-        <v>3.9556962025316451E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>53</v>
-      </c>
-      <c r="B79" t="s">
-        <v>66</v>
-      </c>
-      <c r="C79" s="2">
-        <v>3.9175032736796164E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>146</v>
-      </c>
-      <c r="C80" s="2">
-        <v>1.8712383545326946E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" t="s">
-        <v>94</v>
-      </c>
-      <c r="B81" t="s">
-        <v>113</v>
-      </c>
-      <c r="C81" s="2">
-        <v>0.50750046299154272</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>94</v>
-      </c>
-      <c r="B82" t="s">
-        <v>12</v>
-      </c>
-      <c r="C82" s="2">
-        <v>0.35755293536638066</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>94</v>
-      </c>
-      <c r="B83" t="s">
-        <v>20</v>
-      </c>
-      <c r="C83" s="2">
-        <v>3.39218470275943E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>94</v>
-      </c>
-      <c r="B84" t="s">
-        <v>16</v>
-      </c>
-      <c r="C84" s="2">
-        <v>2.4939811099450586E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>94</v>
-      </c>
-      <c r="B85" t="s">
-        <v>27</v>
-      </c>
-      <c r="C85" s="2">
-        <v>1.6173837891227855E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>94</v>
-      </c>
-      <c r="B86" t="s">
-        <v>43</v>
-      </c>
-      <c r="C86" s="2">
-        <v>1.5896042965615163E-2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>94</v>
-      </c>
-      <c r="B87" t="s">
-        <v>37</v>
-      </c>
-      <c r="C87" s="2">
-        <v>1.2871164886721402E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>94</v>
-      </c>
-      <c r="B88" t="s">
-        <v>21</v>
-      </c>
-      <c r="C88" s="2">
-        <v>1.2809432681029694E-2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>94</v>
-      </c>
-      <c r="B89" t="s">
-        <v>34</v>
-      </c>
-      <c r="C89" s="2">
-        <v>9.3524291622939706E-3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>94</v>
-      </c>
-      <c r="B90" t="s">
-        <v>80</v>
-      </c>
-      <c r="C90" s="2">
-        <v>8.982035928143714E-3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>148</v>
-      </c>
-      <c r="C91" s="2">
-        <v>1.1025822095546018E-2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>126</v>
-      </c>
-      <c r="B92" t="s">
-        <v>16</v>
-      </c>
-      <c r="C92" s="2">
-        <v>0.33152995732383483</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>126</v>
-      </c>
-      <c r="B93" t="s">
-        <v>90</v>
-      </c>
-      <c r="C93" s="2">
-        <v>0.1426123189623307</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>126</v>
-      </c>
-      <c r="B94" t="s">
-        <v>21</v>
-      </c>
-      <c r="C94" s="2">
-        <v>0.10417016700830001</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>126</v>
-      </c>
-      <c r="B95" t="s">
-        <v>27</v>
-      </c>
-      <c r="C95" s="2">
-        <v>9.0728855136261291E-2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>126</v>
-      </c>
-      <c r="B96" t="s">
-        <v>20</v>
-      </c>
-      <c r="C96" s="2">
-        <v>7.40616284149333E-2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>126</v>
-      </c>
-      <c r="B97" t="s">
-        <v>34</v>
-      </c>
-      <c r="C97" s="2">
-        <v>7.1238952921805154E-2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>126</v>
-      </c>
-      <c r="B98" t="s">
-        <v>22</v>
-      </c>
-      <c r="C98" s="2">
-        <v>5.8100070566887325E-2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>126</v>
-      </c>
-      <c r="B99" t="s">
-        <v>38</v>
-      </c>
-      <c r="C99" s="2">
-        <v>4.5532443966531132E-2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>126</v>
-      </c>
-      <c r="B100" t="s">
-        <v>113</v>
-      </c>
-      <c r="C100" s="2">
-        <v>4.4121106219967066E-2</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>126</v>
-      </c>
-      <c r="B101" t="s">
-        <v>12</v>
-      </c>
-      <c r="C101" s="2">
-        <v>3.7904499479149159E-2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>147</v>
-      </c>
-      <c r="C102" s="2">
-        <v>1.0127706640575159E-2</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>46</v>
-      </c>
-      <c r="B103" t="s">
-        <v>27</v>
-      </c>
-      <c r="C103" s="2">
-        <v>0.25343411585144265</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>46</v>
-      </c>
-      <c r="B104" t="s">
-        <v>16</v>
-      </c>
-      <c r="C104" s="2">
-        <v>0.20045061414346971</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>46</v>
-      </c>
-      <c r="B105" t="s">
-        <v>21</v>
-      </c>
-      <c r="C105" s="2">
-        <v>0.11192673886183586</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>46</v>
-      </c>
-      <c r="B106" t="s">
-        <v>20</v>
-      </c>
-      <c r="C106" s="2">
-        <v>7.9947670615597058E-2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>46</v>
-      </c>
-      <c r="B107" t="s">
-        <v>22</v>
-      </c>
-      <c r="C107" s="2">
-        <v>7.8494076604404384E-2</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>46</v>
-      </c>
-      <c r="B108" t="s">
-        <v>38</v>
-      </c>
-      <c r="C108" s="2">
-        <v>6.8464277927174924E-2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>46</v>
-      </c>
-      <c r="B109" t="s">
-        <v>12</v>
-      </c>
-      <c r="C109" s="2">
-        <v>6.2213823679046439E-2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>46</v>
-      </c>
-      <c r="B110" t="s">
-        <v>28</v>
-      </c>
-      <c r="C110" s="2">
-        <v>5.429173631804636E-2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>46</v>
-      </c>
-      <c r="B111" t="s">
-        <v>34</v>
-      </c>
-      <c r="C111" s="2">
-        <v>4.8840758776073835E-2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>46</v>
-      </c>
-      <c r="B112" t="s">
-        <v>30</v>
-      </c>
-      <c r="C112" s="2">
-        <v>4.1936187222908636E-2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>149</v>
-      </c>
-      <c r="C113" s="2">
-        <v>4.6825201003956327E-3</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>118</v>
-      </c>
-      <c r="B114" t="s">
-        <v>27</v>
-      </c>
-      <c r="C114" s="2">
-        <v>0.74614652711703133</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>118</v>
-      </c>
-      <c r="B115" t="s">
-        <v>22</v>
-      </c>
-      <c r="C115" s="2">
-        <v>5.5280685061845858E-2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>118</v>
-      </c>
-      <c r="B116" t="s">
-        <v>91</v>
-      </c>
-      <c r="C116" s="2">
-        <v>4.0723120837297809E-2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>118</v>
-      </c>
-      <c r="B117" t="s">
-        <v>98</v>
-      </c>
-      <c r="C117" s="2">
-        <v>3.9771646051379637E-2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>118</v>
-      </c>
-      <c r="B118" t="s">
-        <v>38</v>
-      </c>
-      <c r="C118" s="2">
-        <v>3.5014272121788766E-2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>118</v>
-      </c>
-      <c r="B119" t="s">
-        <v>96</v>
-      </c>
-      <c r="C119" s="2">
-        <v>2.3882017126546144E-2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>118</v>
-      </c>
-      <c r="B120" t="s">
-        <v>107</v>
-      </c>
-      <c r="C120" s="2">
-        <v>1.8648905803996193E-2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>118</v>
-      </c>
-      <c r="B121" t="s">
-        <v>34</v>
-      </c>
-      <c r="C121" s="2">
-        <v>1.4462416745956231E-2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>118</v>
-      </c>
-      <c r="B122" t="s">
-        <v>12</v>
-      </c>
-      <c r="C122" s="2">
-        <v>1.341579448144624E-2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>118</v>
-      </c>
-      <c r="B123" t="s">
-        <v>21</v>
-      </c>
-      <c r="C123" s="2">
-        <v>1.2654614652711702E-2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>150</v>
-      </c>
-      <c r="C124" s="2">
-        <v>3.5768069085804271E-3</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>114</v>
-      </c>
-      <c r="B125" t="s">
-        <v>27</v>
-      </c>
-      <c r="C125" s="2">
-        <v>0.39338641893386417</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>114</v>
-      </c>
-      <c r="B126" t="s">
-        <v>22</v>
-      </c>
-      <c r="C126" s="2">
-        <v>0.20725503207255033</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>114</v>
-      </c>
-      <c r="B127" t="s">
-        <v>16</v>
-      </c>
-      <c r="C127" s="2">
-        <v>7.3545675735456756E-2</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>114</v>
-      </c>
-      <c r="B128" t="s">
-        <v>20</v>
-      </c>
-      <c r="C128" s="2">
-        <v>7.1554965715549659E-2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>114</v>
-      </c>
-      <c r="B129" t="s">
-        <v>38</v>
-      </c>
-      <c r="C129" s="2">
-        <v>6.193320061933201E-2</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>114</v>
-      </c>
-      <c r="B130" t="s">
-        <v>34</v>
-      </c>
-      <c r="C130" s="2">
-        <v>5.5408095554080952E-2</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>114</v>
-      </c>
-      <c r="B131" t="s">
-        <v>21</v>
-      </c>
-      <c r="C131" s="2">
-        <v>4.7113470471134705E-2</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>114</v>
-      </c>
-      <c r="B132" t="s">
-        <v>91</v>
-      </c>
-      <c r="C132" s="2">
-        <v>4.0698960406989601E-2</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>114</v>
-      </c>
-      <c r="B133" t="s">
-        <v>42</v>
-      </c>
-      <c r="C133" s="2">
-        <v>2.997124529971245E-2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>114</v>
-      </c>
-      <c r="B134" t="s">
-        <v>64</v>
-      </c>
-      <c r="C134" s="2">
-        <v>1.9132935191329352E-2</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A135" t="s">
-        <v>151</v>
-      </c>
-      <c r="C135" s="2">
-        <v>3.0772110435189552E-3</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A136" t="s">
-        <v>86</v>
-      </c>
-      <c r="B136" t="s">
-        <v>30</v>
-      </c>
-      <c r="C136" s="2">
-        <v>0.42519685039370075</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
-        <v>86</v>
-      </c>
-      <c r="B137" t="s">
-        <v>27</v>
-      </c>
-      <c r="C137" s="2">
-        <v>0.2004593175853018</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>86</v>
-      </c>
-      <c r="B138" t="s">
-        <v>28</v>
-      </c>
-      <c r="C138" s="2">
-        <v>0.14927821522309709</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
-        <v>86</v>
-      </c>
-      <c r="B139" t="s">
-        <v>20</v>
-      </c>
-      <c r="C139" s="2">
-        <v>7.8083989501312331E-2</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
-        <v>86</v>
-      </c>
-      <c r="B140" t="s">
-        <v>21</v>
-      </c>
-      <c r="C140" s="2">
-        <v>7.2834645669291334E-2</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
-        <v>86</v>
-      </c>
-      <c r="B141" t="s">
-        <v>37</v>
-      </c>
-      <c r="C141" s="2">
-        <v>1.8700787401574801E-2</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
-        <v>86</v>
-      </c>
-      <c r="B142" t="s">
-        <v>34</v>
-      </c>
-      <c r="C142" s="2">
-        <v>1.4435695538057743E-2</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
-        <v>86</v>
-      </c>
-      <c r="B143" t="s">
-        <v>49</v>
-      </c>
-      <c r="C143" s="2">
-        <v>1.0826771653543307E-2</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
-        <v>86</v>
-      </c>
-      <c r="B144" t="s">
-        <v>50</v>
-      </c>
-      <c r="C144" s="2">
-        <v>1.0498687664041995E-2</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
-        <v>86</v>
-      </c>
-      <c r="B145" t="s">
-        <v>69</v>
-      </c>
-      <c r="C145" s="2">
-        <v>9.8425196850393699E-3</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
-        <v>86</v>
-      </c>
-      <c r="B146" t="s">
-        <v>22</v>
-      </c>
-      <c r="C146" s="2">
-        <v>9.8425196850393699E-3</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
-        <v>152</v>
-      </c>
-      <c r="C147" s="2">
-        <v>1.0373080359042E-3</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>83</v>
-      </c>
-      <c r="B148" t="s">
-        <v>30</v>
-      </c>
-      <c r="C148" s="2">
-        <v>0.36617927527018429</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
-        <v>83</v>
-      </c>
-      <c r="B149" t="s">
-        <v>27</v>
-      </c>
-      <c r="C149" s="2">
-        <v>0.20406865861411311</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
-        <v>83</v>
-      </c>
-      <c r="B150" t="s">
-        <v>20</v>
-      </c>
-      <c r="C150" s="2">
-        <v>0.15638906547997455</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
-        <v>83</v>
-      </c>
-      <c r="B151" t="s">
-        <v>28</v>
-      </c>
-      <c r="C151" s="2">
-        <v>6.8658614113159544E-2</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
-        <v>83</v>
-      </c>
-      <c r="B152" t="s">
-        <v>49</v>
-      </c>
-      <c r="C152" s="2">
-        <v>5.6579783852511119E-2</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
-        <v>83</v>
-      </c>
-      <c r="B153" t="s">
-        <v>21</v>
-      </c>
-      <c r="C153" s="2">
-        <v>5.0222504767959301E-2</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
-        <v>83</v>
-      </c>
-      <c r="B154" t="s">
-        <v>16</v>
-      </c>
-      <c r="C154" s="2">
-        <v>2.9243483788938329E-2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>83</v>
-      </c>
-      <c r="B155" t="s">
-        <v>37</v>
-      </c>
-      <c r="C155" s="2">
-        <v>2.5429116338207245E-2</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
-        <v>83</v>
-      </c>
-      <c r="B156" t="s">
-        <v>34</v>
-      </c>
-      <c r="C156" s="2">
-        <v>2.35219326128417E-2</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
-        <v>83</v>
-      </c>
-      <c r="B157" t="s">
-        <v>50</v>
-      </c>
-      <c r="C157" s="2">
-        <v>1.9707565162110613E-2</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
-        <v>153</v>
-      </c>
-      <c r="C158" s="2">
-        <v>5.3532990173139981E-4</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
-        <v>72</v>
-      </c>
-      <c r="B159" t="s">
-        <v>27</v>
-      </c>
-      <c r="C159" s="2">
-        <v>0.37499999999999989</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
-        <v>72</v>
-      </c>
-      <c r="B160" t="s">
-        <v>21</v>
-      </c>
-      <c r="C160" s="2">
-        <v>0.18749999999999997</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
-        <v>72</v>
-      </c>
-      <c r="B161" t="s">
-        <v>22</v>
-      </c>
-      <c r="C161" s="2">
-        <v>0.12499999999999997</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
-        <v>72</v>
-      </c>
-      <c r="B162" t="s">
-        <v>34</v>
-      </c>
-      <c r="C162" s="2">
-        <v>8.3333333333333315E-2</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
-        <v>72</v>
-      </c>
-      <c r="B163" t="s">
-        <v>42</v>
-      </c>
-      <c r="C163" s="2">
-        <v>6.2499999999999986E-2</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
-        <v>72</v>
-      </c>
-      <c r="B164" t="s">
-        <v>91</v>
-      </c>
-      <c r="C164" s="2">
-        <v>4.1666666666666657E-2</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
-        <v>72</v>
-      </c>
-      <c r="B165" t="s">
-        <v>16</v>
-      </c>
-      <c r="C165" s="2">
-        <v>4.1666666666666657E-2</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
-        <v>72</v>
-      </c>
-      <c r="B166" t="s">
-        <v>20</v>
-      </c>
-      <c r="C166" s="2">
-        <v>4.1666666666666657E-2</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
-        <v>72</v>
-      </c>
-      <c r="B167" t="s">
-        <v>50</v>
-      </c>
-      <c r="C167" s="2">
-        <v>2.0833333333333329E-2</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
-        <v>72</v>
-      </c>
-      <c r="B168" t="s">
-        <v>90</v>
-      </c>
-      <c r="C168" s="2">
-        <v>2.0833333333333329E-2</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
-        <v>154</v>
-      </c>
-      <c r="C169" s="2">
-        <v>1.6335559620538585E-5</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
-        <v>122</v>
-      </c>
-      <c r="B170" t="s">
-        <v>21</v>
-      </c>
-      <c r="C170" s="2">
-        <v>0.21739130434782603</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
-        <v>122</v>
-      </c>
-      <c r="B171" t="s">
-        <v>30</v>
-      </c>
-      <c r="C171" s="2">
-        <v>0.17391304347826081</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
-        <v>122</v>
-      </c>
-      <c r="B172" t="s">
-        <v>27</v>
-      </c>
-      <c r="C172" s="2">
-        <v>0.13043478260869562</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
-        <v>122</v>
-      </c>
-      <c r="B173" t="s">
-        <v>34</v>
-      </c>
-      <c r="C173" s="2">
-        <v>8.6956521739130405E-2</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A174" t="s">
-        <v>122</v>
-      </c>
-      <c r="B174" t="s">
-        <v>28</v>
-      </c>
-      <c r="C174" s="2">
-        <v>8.6956521739130405E-2</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>122</v>
-      </c>
-      <c r="B175" t="s">
-        <v>20</v>
-      </c>
-      <c r="C175" s="2">
-        <v>8.6956521739130405E-2</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>122</v>
-      </c>
-      <c r="B176" t="s">
-        <v>12</v>
-      </c>
-      <c r="C176" s="2">
-        <v>4.3478260869565202E-2</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>122</v>
-      </c>
-      <c r="B177" t="s">
-        <v>90</v>
-      </c>
-      <c r="C177" s="2">
-        <v>4.3478260869565202E-2</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>122</v>
-      </c>
-      <c r="B178" t="s">
-        <v>43</v>
-      </c>
-      <c r="C178" s="2">
-        <v>4.3478260869565202E-2</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A179" t="s">
-        <v>122</v>
-      </c>
-      <c r="B179" t="s">
-        <v>16</v>
-      </c>
-      <c r="C179" s="2">
-        <v>4.3478260869565202E-2</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>122</v>
-      </c>
-      <c r="B180" t="s">
-        <v>22</v>
-      </c>
-      <c r="C180" s="2">
-        <v>4.3478260869565202E-2</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A181" t="s">
-        <v>155</v>
-      </c>
-      <c r="C181" s="2">
-        <v>7.8274556515080726E-6</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
-        <v>138</v>
-      </c>
-      <c r="C182" s="2">
-        <v>1</v>
-      </c>
+      <c r="A20" s="10"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -52705,210 +49094,128 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD98CB2-CB5E-41FB-B21F-E0D8E1E854F6}">
-  <dimension ref="A3:F14"/>
+  <dimension ref="A3:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:F10"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="55.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>161</v>
-      </c>
-      <c r="F4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="2">
-        <v>2.4563702585145477E-5</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="2">
-        <v>2.4563702585145477E-5</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="2">
-        <v>8.216558514731161E-4</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="2">
-        <v>8.216558514731161E-4</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="2">
-        <v>2.8229835195978442E-3</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="2">
-        <v>2.8229835195978442E-3</v>
-      </c>
-      <c r="F7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1.619976185490344E-3</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1.619976185490344E-3</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0.24086061388377325</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" s="2">
-        <v>0.24086061388377325</v>
-      </c>
-      <c r="F9">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.55037063556738153</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="2">
-        <v>2.4095764050898451E-2</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0.55037063556738153</v>
-      </c>
-      <c r="F11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0.12192378005906343</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="2">
-        <v>2.4095764050898451E-2</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="2">
-        <v>5.7460027179736931E-2</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0.12192378005906343</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B14" s="2">
-        <v>1</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="2">
-        <v>5.7460027179736931E-2</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="6"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/combineClean.xlsx
+++ b/combineClean.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\landfireFSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55CA6368-E33D-4E84-90AC-B0C34F135CFB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA35CCA1-F864-4316-80AC-A5F26A80A3B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="885" windowWidth="24240" windowHeight="13140" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="combineClean" sheetId="1" r:id="rId1"/>
@@ -1112,31 +1112,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
@@ -15386,13 +15362,13 @@
     <pivotField showAll="0"/>
   </pivotFields>
   <formats count="3">
-    <format dxfId="10">
+    <format dxfId="2">
       <pivotArea dataOnly="0" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>

--- a/combineClean.xlsx
+++ b/combineClean.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\landfireFSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA35CCA1-F864-4316-80AC-A5F26A80A3B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F96E1520-FB8C-48F0-B309-B812545D155D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="885" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="combineClean" sheetId="1" r:id="rId1"/>
@@ -15929,7 +15929,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I1254"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -49072,7 +49072,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FD98CB2-CB5E-41FB-B21F-E0D8E1E854F6}">
   <dimension ref="A3:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>

--- a/combineClean.xlsx
+++ b/combineClean.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\landfireFSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F96E1520-FB8C-48F0-B309-B812545D155D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147645E2-B513-4CBD-A906-C48E36B04A18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="885" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="885" windowWidth="24240" windowHeight="13140" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="combineClean" sheetId="1" r:id="rId1"/>
@@ -15929,8 +15929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I1254"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48562,14 +48562,14 @@
   <dimension ref="A3:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="76" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -48671,8 +48671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C053C8C7-6436-481A-B955-2A875A7553D6}">
   <dimension ref="A3:C80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/combineClean.xlsx
+++ b/combineClean.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R\landfireFSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147645E2-B513-4CBD-A906-C48E36B04A18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B32E29-A585-4608-A1AA-49250B12D2C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="885" windowWidth="24240" windowHeight="13140" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="885" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="combineClean" sheetId="1" r:id="rId1"/>
@@ -15929,8 +15929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I1254"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48671,7 +48671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C053C8C7-6436-481A-B955-2A875A7553D6}">
   <dimension ref="A3:C80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
